--- a/outcome/appendix/data/PHSMs/HFMD.xlsx
+++ b/outcome/appendix/data/PHSMs/HFMD.xlsx
@@ -409,7 +409,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>43495.1857244249</v>
+        <v>42661.7180962501</v>
       </c>
       <c r="C2" t="n">
         <v>-38933.206821492</v>
@@ -418,10 +418,10 @@
         <v>-66257.5812702765</v>
       </c>
       <c r="E2" t="n">
-        <v>122593.082086385</v>
+        <v>118553.463833228</v>
       </c>
       <c r="F2" t="n">
-        <v>151221.246564499</v>
+        <v>146795.513776762</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -435,7 +435,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>32187.7604216341</v>
+        <v>30562.8494003286</v>
       </c>
       <c r="C3" t="n">
         <v>-91050.1676343404</v>
@@ -444,10 +444,10 @@
         <v>-129690.734347143</v>
       </c>
       <c r="E3" t="n">
-        <v>225855.88315575</v>
+        <v>219816.380119176</v>
       </c>
       <c r="F3" t="n">
-        <v>269263.941007248</v>
+        <v>268185.511626568</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -461,7 +461,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>78852.1596192207</v>
+        <v>77094.5233532469</v>
       </c>
       <c r="C4" t="n">
         <v>-65989.8900122636</v>
@@ -470,10 +470,10 @@
         <v>-113313.936254694</v>
       </c>
       <c r="E4" t="n">
-        <v>298097.279742814</v>
+        <v>297079.891232552</v>
       </c>
       <c r="F4" t="n">
-        <v>348953.693490505</v>
+        <v>352811.31496583</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -487,19 +487,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>181979.954122606</v>
+        <v>181470.073437691</v>
       </c>
       <c r="C5" t="n">
-        <v>-2364340.6376468</v>
+        <v>40573.5216459512</v>
       </c>
       <c r="D5" t="n">
-        <v>-3756568.26703819</v>
+        <v>-14071.1241084579</v>
       </c>
       <c r="E5" t="n">
-        <v>2895620.55434591</v>
+        <v>407136.542453074</v>
       </c>
       <c r="F5" t="n">
-        <v>4287848.1837373</v>
+        <v>482040.309482122</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
@@ -513,19 +513,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>307981.558251585</v>
+        <v>307208.207939467</v>
       </c>
       <c r="C6" t="n">
-        <v>-86384867.347112</v>
+        <v>154229.555064436</v>
       </c>
       <c r="D6" t="n">
-        <v>-132319231.177221</v>
+        <v>71773.6598790275</v>
       </c>
       <c r="E6" t="n">
-        <v>87159290.2493487</v>
+        <v>593465.136585661</v>
       </c>
       <c r="F6" t="n">
-        <v>133093654.079458</v>
+        <v>702649.242357609</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
@@ -539,19 +539,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>334364.218096093</v>
+        <v>333764.977209846</v>
       </c>
       <c r="C7" t="n">
-        <v>-1319862766.07257</v>
+        <v>174298.060058567</v>
       </c>
       <c r="D7" t="n">
-        <v>-2018753343.78683</v>
+        <v>69131.6540900663</v>
       </c>
       <c r="E7" t="n">
-        <v>1320608690.33244</v>
+        <v>571626.199809307</v>
       </c>
       <c r="F7" t="n">
-        <v>2019499268.0467</v>
+        <v>676792.605777807</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
@@ -565,19 +565,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>288070.149698339</v>
+        <v>287412.18393782</v>
       </c>
       <c r="C8" t="n">
-        <v>-17849658108.2523</v>
+        <v>117461.040594857</v>
       </c>
       <c r="D8" t="n">
-        <v>-27298856835.7589</v>
+        <v>45173.7444756054</v>
       </c>
       <c r="E8" t="n">
-        <v>17850264485.4677</v>
+        <v>464687.159549392</v>
       </c>
       <c r="F8" t="n">
-        <v>27299463212.9742</v>
+        <v>550179.328719818</v>
       </c>
       <c r="G8" t="s">
         <v>8</v>
@@ -591,19 +591,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>177333.081101109</v>
+        <v>177133.314652454</v>
       </c>
       <c r="C9" t="n">
-        <v>-148298432755.358</v>
+        <v>-18700.663354265</v>
       </c>
       <c r="D9" t="n">
-        <v>-226802969415.018</v>
+        <v>-95978.8953287448</v>
       </c>
       <c r="E9" t="n">
-        <v>148298766946.599</v>
+        <v>309479.100910378</v>
       </c>
       <c r="F9" t="n">
-        <v>226803303606.259</v>
+        <v>378788.056664897</v>
       </c>
       <c r="G9" t="s">
         <v>8</v>
@@ -617,19 +617,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>178895.417506343</v>
+        <v>178232.886706699</v>
       </c>
       <c r="C10" t="n">
-        <v>-1753526563932.92</v>
+        <v>-12051.3940109716</v>
       </c>
       <c r="D10" t="n">
-        <v>-2681787545285.65</v>
+        <v>-94017.2228298805</v>
       </c>
       <c r="E10" t="n">
-        <v>1753526905542.38</v>
+        <v>313343.079414347</v>
       </c>
       <c r="F10" t="n">
-        <v>2681787886895.11</v>
+        <v>379588.707574272</v>
       </c>
       <c r="G10" t="s">
         <v>8</v>
@@ -643,19 +643,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>167908.613297202</v>
+        <v>166838.70027923</v>
       </c>
       <c r="C11" t="n">
-        <v>-30764769220434.7</v>
+        <v>-27995.9385706298</v>
       </c>
       <c r="D11" t="n">
-        <v>-47050654382287.2</v>
+        <v>-114395.412242868</v>
       </c>
       <c r="E11" t="n">
-        <v>30764769570604.2</v>
+        <v>304834.453618928</v>
       </c>
       <c r="F11" t="n">
-        <v>47050654732456.6</v>
+        <v>384828.516857813</v>
       </c>
       <c r="G11" t="s">
         <v>8</v>
@@ -669,19 +669,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>136006.237763421</v>
+        <v>134811.584631091</v>
       </c>
       <c r="C12" t="n">
-        <v>-197244990186688</v>
+        <v>-68597.3639848487</v>
       </c>
       <c r="D12" t="n">
-        <v>-301660180822783</v>
+        <v>-159213.813968883</v>
       </c>
       <c r="E12" t="n">
-        <v>197244990478665</v>
+        <v>273759.733525513</v>
       </c>
       <c r="F12" t="n">
-        <v>301660181114760</v>
+        <v>364376.183509547</v>
       </c>
       <c r="G12" t="s">
         <v>8</v>
@@ -695,19 +695,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>99284.5649700158</v>
+        <v>98180.4036867743</v>
       </c>
       <c r="C13" t="n">
-        <v>-2350294017664162</v>
+        <v>-114924.269814328</v>
       </c>
       <c r="D13" t="n">
-        <v>-3594464515998192</v>
+        <v>-209569.993249558</v>
       </c>
       <c r="E13" t="n">
-        <v>2350294017871404</v>
+        <v>242655.785162036</v>
       </c>
       <c r="F13" t="n">
-        <v>3594464516205436</v>
+        <v>337301.508597267</v>
       </c>
       <c r="G13" t="s">
         <v>8</v>
@@ -721,19 +721,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>58922.1803726112</v>
+        <v>57561.0271638433</v>
       </c>
       <c r="C14" t="n">
-        <v>-9469052533351042</v>
+        <v>-173406.675992979</v>
       </c>
       <c r="D14" t="n">
-        <v>-14481666155381682</v>
+        <v>-271917.005001908</v>
       </c>
       <c r="E14" t="n">
-        <v>9469052533462650</v>
+        <v>226220.238118401</v>
       </c>
       <c r="F14" t="n">
-        <v>14481666155493290</v>
+        <v>311071.352296651</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
@@ -747,19 +747,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>38422.6553661416</v>
+        <v>36949.750186854</v>
       </c>
       <c r="C15" t="n">
-        <v>-47756008171565608</v>
+        <v>-211171.470653799</v>
       </c>
       <c r="D15" t="n">
-        <v>-73036511817544768</v>
+        <v>-313400.414100929</v>
       </c>
       <c r="E15" t="n">
-        <v>47756008171630856</v>
+        <v>274159.838195142</v>
       </c>
       <c r="F15" t="n">
-        <v>73036511817610016</v>
+        <v>348863.744229143</v>
       </c>
       <c r="G15" t="s">
         <v>8</v>
@@ -773,19 +773,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>80573.4635270812</v>
+        <v>79591.4220465758</v>
       </c>
       <c r="C16" t="n">
-        <v>-1450115992122631680</v>
+        <v>-176485.632659604</v>
       </c>
       <c r="D16" t="n">
-        <v>-2217761028412622848</v>
+        <v>-282302.591769123</v>
       </c>
       <c r="E16" t="n">
-        <v>1450115992122851328</v>
+        <v>334295.156269355</v>
       </c>
       <c r="F16" t="n">
-        <v>2217761028412842496</v>
+        <v>406595.240890136</v>
       </c>
       <c r="G16" t="s">
         <v>8</v>
@@ -799,19 +799,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>181769.626737185</v>
+        <v>182104.439559921</v>
       </c>
       <c r="C17" t="n">
-        <v>-28343150012385148928</v>
+        <v>-62648.7956882815</v>
       </c>
       <c r="D17" t="n">
-        <v>-43347107308229287936</v>
+        <v>-171936.035529238</v>
       </c>
       <c r="E17" t="n">
-        <v>28343150012385681408</v>
+        <v>409039.89478865</v>
       </c>
       <c r="F17" t="n">
-        <v>43347107308229828608</v>
+        <v>484295.897957021</v>
       </c>
       <c r="G17" t="s">
         <v>8</v>
@@ -825,19 +825,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>296617.708893521</v>
+        <v>297254.0078743</v>
       </c>
       <c r="C18" t="n">
-        <v>-338964299679969837056</v>
+        <v>83714.3906057662</v>
       </c>
       <c r="D18" t="n">
-        <v>-518401160967144603648</v>
+        <v>-28936.2762760769</v>
       </c>
       <c r="E18" t="n">
-        <v>338964299679970623488</v>
+        <v>596164.590196783</v>
       </c>
       <c r="F18" t="n">
-        <v>518401160967145390080</v>
+        <v>705848.535017924</v>
       </c>
       <c r="G18" t="s">
         <v>8</v>
@@ -851,19 +851,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>319793.831768466</v>
+        <v>319069.157568579</v>
       </c>
       <c r="C19" t="n">
-        <v>-2736113961031865204736</v>
+        <v>109625.882344073</v>
       </c>
       <c r="D19" t="n">
-        <v>-4184525200077133709312</v>
+        <v>-6290.65964106913</v>
       </c>
       <c r="E19" t="n">
-        <v>2736113961031866253312</v>
+        <v>574156.115985976</v>
       </c>
       <c r="F19" t="n">
-        <v>4184525200077134757888</v>
+        <v>679791.240247449</v>
       </c>
       <c r="G19" t="s">
         <v>8</v>
@@ -877,19 +877,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>277318.332380656</v>
+        <v>275483.252554758</v>
       </c>
       <c r="C20" t="n">
-        <v>-20144653258781618077696</v>
+        <v>29043.1673564049</v>
       </c>
       <c r="D20" t="n">
-        <v>-30808588534228050771968</v>
+        <v>-90049.723542516</v>
       </c>
       <c r="E20" t="n">
-        <v>20144653258781618077696</v>
+        <v>478986.81963429</v>
       </c>
       <c r="F20" t="n">
-        <v>30808588534228050771968</v>
+        <v>598079.710533211</v>
       </c>
       <c r="G20" t="s">
         <v>8</v>
@@ -903,19 +903,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>174349.258358098</v>
+        <v>172258.172570375</v>
       </c>
       <c r="C21" t="n">
-        <v>-197197491526934139502592</v>
+        <v>-103534.77082739</v>
       </c>
       <c r="D21" t="n">
-        <v>-301587537814124962512896</v>
+        <v>-225721.466582416</v>
       </c>
       <c r="E21" t="n">
-        <v>197197491526934139502592</v>
+        <v>358097.554434114</v>
       </c>
       <c r="F21" t="n">
-        <v>301587537814124962512896</v>
+        <v>480284.25018914</v>
       </c>
       <c r="G21" t="s">
         <v>8</v>
@@ -929,19 +929,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>176275.981840536</v>
+        <v>174029.626926967</v>
       </c>
       <c r="C22" t="n">
-        <v>-1724577211451083679858688</v>
+        <v>-93730.386690667</v>
       </c>
       <c r="D22" t="n">
-        <v>-2637513240886447970451456</v>
+        <v>-218934.462408675</v>
       </c>
       <c r="E22" t="n">
-        <v>1724577211451083679858688</v>
+        <v>379301.871435058</v>
       </c>
       <c r="F22" t="n">
-        <v>2637513240886447970451456</v>
+        <v>504505.947153066</v>
       </c>
       <c r="G22" t="s">
         <v>8</v>
@@ -955,19 +955,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>163956.977078498</v>
+        <v>161656.068040679</v>
       </c>
       <c r="C23" t="n">
-        <v>-19855619535186072663228416</v>
+        <v>-106865.371185745</v>
       </c>
       <c r="D23" t="n">
-        <v>-30366549599708834210775040</v>
+        <v>-235015.800499383</v>
       </c>
       <c r="E23" t="n">
-        <v>19855619535186072663228416</v>
+        <v>377298.47580069</v>
       </c>
       <c r="F23" t="n">
-        <v>30366549599708834210775040</v>
+        <v>505448.905114328</v>
       </c>
       <c r="G23" t="s">
         <v>8</v>
@@ -981,19 +981,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>134096.506889422</v>
+        <v>131849.295428054</v>
       </c>
       <c r="C24" t="n">
-        <v>-52798726450753487499165696</v>
+        <v>-144941.412293999</v>
       </c>
       <c r="D24" t="n">
-        <v>-80748683904173094694027264</v>
+        <v>-275971.960221338</v>
       </c>
       <c r="E24" t="n">
-        <v>52798726450753487499165696</v>
+        <v>350103.781834662</v>
       </c>
       <c r="F24" t="n">
-        <v>80748683904173094694027264</v>
+        <v>481134.329762002</v>
       </c>
       <c r="G24" t="s">
         <v>8</v>
@@ -1007,19 +1007,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>99205.9367119199</v>
+        <v>97204.6852620616</v>
       </c>
       <c r="C25" t="n">
-        <v>-604673618757928582851330048</v>
+        <v>-188980.469177104</v>
       </c>
       <c r="D25" t="n">
-        <v>-924768497054906634460987392</v>
+        <v>-322829.176481314</v>
       </c>
       <c r="E25" t="n">
-        <v>604673618757928582851330048</v>
+        <v>316711.984524812</v>
       </c>
       <c r="F25" t="n">
-        <v>924768497054906634460987392</v>
+        <v>450560.691829022</v>
       </c>
       <c r="G25" t="s">
         <v>8</v>
@@ -1033,19 +1033,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>59999.8495151354</v>
+        <v>58206.3778760113</v>
       </c>
       <c r="C26" t="n">
-        <v>-3644587425478459674167607296</v>
+        <v>-245376.291388587</v>
       </c>
       <c r="D26" t="n">
-        <v>-5573915466608461680423731200</v>
+        <v>-381985.033436368</v>
       </c>
       <c r="E26" t="n">
-        <v>3644587425478459674167607296</v>
+        <v>270743.821794618</v>
       </c>
       <c r="F26" t="n">
-        <v>5573915466608461680423731200</v>
+        <v>407352.563842399</v>
       </c>
       <c r="G26" t="s">
         <v>8</v>
@@ -1059,19 +1059,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>39592.0014006528</v>
+        <v>38111.888171248</v>
       </c>
       <c r="C27" t="n">
-        <v>-16083903377191899553322762240</v>
+        <v>-281227.011879203</v>
       </c>
       <c r="D27" t="n">
-        <v>-24598207514749558513102487552</v>
+        <v>-420541.118705275</v>
       </c>
       <c r="E27" t="n">
-        <v>16083903377191899553322762240</v>
+        <v>300013.645992733</v>
       </c>
       <c r="F27" t="n">
-        <v>24598207514749558513102487552</v>
+        <v>384428.319565866</v>
       </c>
       <c r="G27" t="s">
         <v>8</v>
@@ -1085,19 +1085,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>80532.3974181003</v>
+        <v>79768.2853652688</v>
       </c>
       <c r="C28" t="n">
-        <v>-444272235195557226336959332352</v>
+        <v>-244776.436738788</v>
       </c>
       <c r="D28" t="n">
-        <v>-679455750143278937367348510720</v>
+        <v>-386744.363812531</v>
       </c>
       <c r="E28" t="n">
-        <v>444272235195557226336959332352</v>
+        <v>336246.532246313</v>
       </c>
       <c r="F28" t="n">
-        <v>679455750143278937367348510720</v>
+        <v>433559.086517466</v>
       </c>
       <c r="G28" t="s">
         <v>8</v>
@@ -1111,19 +1111,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>180906.050697436</v>
+        <v>181367.185456651</v>
       </c>
       <c r="C29" t="n">
-        <v>-14467001357775678304496209887232</v>
+        <v>-129305.261359897</v>
       </c>
       <c r="D29" t="n">
-        <v>-22125369269462750478778876559360</v>
+        <v>-273878.302672877</v>
       </c>
       <c r="E29" t="n">
-        <v>14467001357775678304496209887232</v>
+        <v>416904.69070596</v>
       </c>
       <c r="F29" t="n">
-        <v>22125369269462750478778876559360</v>
+        <v>561477.73201894</v>
       </c>
       <c r="G29" t="s">
         <v>8</v>
@@ -1137,19 +1137,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>296362.911669027</v>
+        <v>297651.385120554</v>
       </c>
       <c r="C30" t="n">
-        <v>-68642264479042239184762226868224</v>
+        <v>18577.5324505722</v>
       </c>
       <c r="D30" t="n">
-        <v>-104979284340403441124820928954368</v>
+        <v>-128554.504276151</v>
       </c>
       <c r="E30" t="n">
-        <v>68642264479042239184762226868224</v>
+        <v>598120.659351302</v>
       </c>
       <c r="F30" t="n">
-        <v>104979284340403441124820928954368</v>
+        <v>721587.636056144</v>
       </c>
       <c r="G30" t="s">
         <v>8</v>
@@ -1163,19 +1163,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>316745.837651885</v>
+        <v>317010.512409435</v>
       </c>
       <c r="C31" t="n">
-        <v>-468994318882850923589618697764864</v>
+        <v>45907.0028779377</v>
       </c>
       <c r="D31" t="n">
-        <v>-717264914403704194432314340540416</v>
+        <v>-103740.276376391</v>
       </c>
       <c r="E31" t="n">
-        <v>468994318882850923589618697764864</v>
+        <v>611287.882231092</v>
       </c>
       <c r="F31" t="n">
-        <v>717264914403704194432314340540416</v>
+        <v>760935.161485421</v>
       </c>
       <c r="G31" t="s">
         <v>8</v>
@@ -1189,19 +1189,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>271527.292643191</v>
+        <v>269865.130921329</v>
       </c>
       <c r="C32" t="n">
-        <v>-3530987543916146241591946864754688</v>
+        <v>-33348.3010637033</v>
       </c>
       <c r="D32" t="n">
-        <v>-5400179440297625770943039529811968</v>
+        <v>-185469.240270284</v>
       </c>
       <c r="E32" t="n">
-        <v>3530987543916146241591946864754688</v>
+        <v>541378.288054398</v>
       </c>
       <c r="F32" t="n">
-        <v>5400179440297625770943039529811968</v>
+        <v>693499.227260979</v>
       </c>
       <c r="G32" t="s">
         <v>8</v>
@@ -1215,19 +1215,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>171569.032871392</v>
+        <v>168751.887251719</v>
       </c>
       <c r="C33" t="n">
-        <v>-23050666106171450649545880010489856</v>
+        <v>-164679.977961761</v>
       </c>
       <c r="D33" t="n">
-        <v>-35252951658293496443989895801733120</v>
+        <v>-319234.991151115</v>
       </c>
       <c r="E33" t="n">
-        <v>23050666106171450649545880010489856</v>
+        <v>419242.761568485</v>
       </c>
       <c r="F33" t="n">
-        <v>35252951658293496443989895801733120</v>
+        <v>573797.774757839</v>
       </c>
       <c r="G33" t="s">
         <v>8</v>
@@ -1241,19 +1241,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>176404.996205268</v>
+        <v>173215.366755502</v>
       </c>
       <c r="C34" t="n">
-        <v>-364703287071493652227895459210854400</v>
+        <v>-153702.402096385</v>
       </c>
       <c r="D34" t="n">
-        <v>-557765545235583419077987015801700352</v>
+        <v>-310653.745062383</v>
       </c>
       <c r="E34" t="n">
-        <v>364703287071493652227895459210854400</v>
+        <v>439273.886840776</v>
       </c>
       <c r="F34" t="n">
-        <v>557765545235583419077987015801700352</v>
+        <v>596225.229806775</v>
       </c>
       <c r="G34" t="s">
         <v>8</v>
@@ -1267,19 +1267,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>167179.537079991</v>
+        <v>164017.607266157</v>
       </c>
       <c r="C35" t="n">
-        <v>-2552104342927144426952129843445104640</v>
+        <v>-165730.28383758</v>
       </c>
       <c r="D35" t="n">
-        <v>-3903106774170125786038250237870473216</v>
+        <v>-325041.915602808</v>
       </c>
       <c r="E35" t="n">
-        <v>2552104342927144426952129843445104640</v>
+        <v>436163.388452525</v>
       </c>
       <c r="F35" t="n">
-        <v>3903106774170125786038250237870473216</v>
+        <v>595475.020217753</v>
       </c>
       <c r="G35" t="s">
         <v>8</v>
@@ -1293,19 +1293,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>138553.161796966</v>
+        <v>135605.392816469</v>
       </c>
       <c r="C36" t="n">
-        <v>-15646252555632732276651322184856240128</v>
+        <v>-202759.242557941</v>
       </c>
       <c r="D36" t="n">
-        <v>-23928878342890747228369906528579223552</v>
+        <v>-364396.701002971</v>
       </c>
       <c r="E36" t="n">
-        <v>15646252555632732276651322184856240128</v>
+        <v>407921.612098604</v>
       </c>
       <c r="F36" t="n">
-        <v>23928878342890747228369906528579223552</v>
+        <v>569559.070543634</v>
       </c>
       <c r="G36" t="s">
         <v>8</v>

--- a/outcome/appendix/data/PHSMs/HFMD.xlsx
+++ b/outcome/appendix/data/PHSMs/HFMD.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,19 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color</t>
+  </si>
+  <si>
     <t xml:space="preserve">手足口病</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase</t>
   </si>
 </sst>
 </file>
@@ -403,13 +415,19 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>42661.7180962501</v>
+        <v>43495.1857244249</v>
       </c>
       <c r="C2" t="n">
         <v>-38933.206821492</v>
@@ -418,16 +436,22 @@
         <v>-66257.5812702765</v>
       </c>
       <c r="E2" t="n">
-        <v>118553.463833228</v>
+        <v>122593.082086385</v>
       </c>
       <c r="F2" t="n">
-        <v>146795.513776762</v>
+        <v>151221.246564499</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
         <v>28355</v>
+      </c>
+      <c r="I2" t="n">
+        <v>15140.1857244249</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +459,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>30562.8494003286</v>
+        <v>32187.7604216341</v>
       </c>
       <c r="C3" t="n">
         <v>-91050.1676343404</v>
@@ -444,16 +468,22 @@
         <v>-129690.734347143</v>
       </c>
       <c r="E3" t="n">
-        <v>219816.380119176</v>
+        <v>225855.88315575</v>
       </c>
       <c r="F3" t="n">
-        <v>268185.511626568</v>
+        <v>269263.941007248</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
         <v>3263</v>
+      </c>
+      <c r="I3" t="n">
+        <v>28924.7604216341</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -461,25 +491,31 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>77094.5233532469</v>
+        <v>78852.1596192207</v>
       </c>
       <c r="C4" t="n">
-        <v>-65989.8900122636</v>
+        <v>-162449.945854554</v>
       </c>
       <c r="D4" t="n">
-        <v>-113313.936254694</v>
+        <v>-306241.215190991</v>
       </c>
       <c r="E4" t="n">
-        <v>297079.891232552</v>
+        <v>380806.401376294</v>
       </c>
       <c r="F4" t="n">
-        <v>352811.31496583</v>
+        <v>524597.670712731</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
         <v>2869</v>
+      </c>
+      <c r="I4" t="n">
+        <v>75983.1596192207</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -487,25 +523,31 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>181470.073437691</v>
+        <v>181979.954122606</v>
       </c>
       <c r="C5" t="n">
-        <v>40573.5216459512</v>
+        <v>-35440192.8640259</v>
       </c>
       <c r="D5" t="n">
-        <v>-14071.1241084579</v>
+        <v>-54341719.0050994</v>
       </c>
       <c r="E5" t="n">
-        <v>407136.542453074</v>
+        <v>35971472.780725</v>
       </c>
       <c r="F5" t="n">
-        <v>482040.309482122</v>
+        <v>54872998.9217985</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
         <v>3001</v>
+      </c>
+      <c r="I5" t="n">
+        <v>178978.954122606</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -513,25 +555,31 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>307208.207939467</v>
+        <v>307981.558251585</v>
       </c>
       <c r="C6" t="n">
-        <v>154229.555064436</v>
+        <v>-2549617738.70471</v>
       </c>
       <c r="D6" t="n">
-        <v>71773.6598790275</v>
+        <v>-3899508818.54623</v>
       </c>
       <c r="E6" t="n">
-        <v>593465.136585661</v>
+        <v>2550392161.60695</v>
       </c>
       <c r="F6" t="n">
-        <v>702649.242357609</v>
+        <v>3900283241.44847</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
         <v>3919</v>
+      </c>
+      <c r="I6" t="n">
+        <v>304062.558251585</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -539,25 +587,31 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>333764.977209846</v>
+        <v>334364.218096093</v>
       </c>
       <c r="C7" t="n">
-        <v>174298.060058567</v>
+        <v>-125514078045.425</v>
       </c>
       <c r="D7" t="n">
-        <v>69131.6540900663</v>
+        <v>-191957414869.517</v>
       </c>
       <c r="E7" t="n">
-        <v>571626.199809307</v>
+        <v>125514823969.685</v>
       </c>
       <c r="F7" t="n">
-        <v>676792.605777807</v>
+        <v>191958160793.777</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
         <v>6260</v>
+      </c>
+      <c r="I7" t="n">
+        <v>328104.218096093</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -565,25 +619,31 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>287412.18393782</v>
+        <v>288070.149698339</v>
       </c>
       <c r="C8" t="n">
-        <v>117461.040594857</v>
+        <v>-5105832490245.08</v>
       </c>
       <c r="D8" t="n">
-        <v>45173.7444756054</v>
+        <v>-7808697103349.96</v>
       </c>
       <c r="E8" t="n">
-        <v>464687.159549392</v>
+        <v>5105833096622.29</v>
       </c>
       <c r="F8" t="n">
-        <v>550179.328719818</v>
+        <v>7808697709727.17</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
         <v>59143</v>
+      </c>
+      <c r="I8" t="n">
+        <v>228927.149698339</v>
+      </c>
+      <c r="J8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -591,25 +651,31 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>177133.314652454</v>
+        <v>177333.081101109</v>
       </c>
       <c r="C9" t="n">
-        <v>-18700.663354265</v>
+        <v>-145658868463954</v>
       </c>
       <c r="D9" t="n">
-        <v>-95978.8953287448</v>
+        <v>-222766015825706</v>
       </c>
       <c r="E9" t="n">
-        <v>309479.100910378</v>
+        <v>145658868798146</v>
       </c>
       <c r="F9" t="n">
-        <v>378788.056664897</v>
+        <v>222766016159898</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
         <v>26778</v>
+      </c>
+      <c r="I9" t="n">
+        <v>150555.081101109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -617,25 +683,31 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>178232.886706699</v>
+        <v>178895.417506343</v>
       </c>
       <c r="C10" t="n">
-        <v>-12051.3940109716</v>
+        <v>-7224519686852235</v>
       </c>
       <c r="D10" t="n">
-        <v>-94017.2228298805</v>
+        <v>-11048949392785126</v>
       </c>
       <c r="E10" t="n">
-        <v>313343.079414347</v>
+        <v>7224519687193845</v>
       </c>
       <c r="F10" t="n">
-        <v>379588.707574272</v>
+        <v>11048949393126734</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
         <v>115170</v>
+      </c>
+      <c r="I10" t="n">
+        <v>63725.4175063429</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -643,25 +715,31 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>166838.70027923</v>
+        <v>167908.613297202</v>
       </c>
       <c r="C11" t="n">
-        <v>-27995.9385706298</v>
+        <v>-369297196594793088</v>
       </c>
       <c r="D11" t="n">
-        <v>-114395.412242868</v>
+        <v>-564791323562493824</v>
       </c>
       <c r="E11" t="n">
-        <v>304834.453618928</v>
+        <v>369297196595143296</v>
       </c>
       <c r="F11" t="n">
-        <v>384828.516857813</v>
+        <v>564791323562844032</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>199875</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-31966.3867027976</v>
+      </c>
+      <c r="J11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -669,25 +747,31 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>134811.584631091</v>
+        <v>136006.237763421</v>
       </c>
       <c r="C12" t="n">
-        <v>-68597.3639848487</v>
+        <v>-14126371556627208192</v>
       </c>
       <c r="D12" t="n">
-        <v>-159213.813968883</v>
+        <v>-21604420943807012864</v>
       </c>
       <c r="E12" t="n">
-        <v>273759.733525513</v>
+        <v>14126371556627499008</v>
       </c>
       <c r="F12" t="n">
-        <v>364376.183509547</v>
+        <v>21604420943807307776</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
         <v>189017</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-53010.7622365794</v>
+      </c>
+      <c r="J12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -695,25 +779,31 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>98180.4036867743</v>
+        <v>99284.5649700158</v>
       </c>
       <c r="C13" t="n">
-        <v>-114924.269814328</v>
+        <v>-380849647074321956864</v>
       </c>
       <c r="D13" t="n">
-        <v>-209569.993249558</v>
+        <v>-582459271916423872512</v>
       </c>
       <c r="E13" t="n">
-        <v>242655.785162036</v>
+        <v>380849647074322219008</v>
       </c>
       <c r="F13" t="n">
-        <v>337301.508597267</v>
+        <v>582459271916424134656</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
         <v>131798</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-32513.4350299842</v>
+      </c>
+      <c r="J13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -721,25 +811,31 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>57561.0271638433</v>
+        <v>58922.1803726112</v>
       </c>
       <c r="C14" t="n">
-        <v>-173406.675992979</v>
+        <v>-8577915169748440580096</v>
       </c>
       <c r="D14" t="n">
-        <v>-271917.005001908</v>
+        <v>-13118789167100133900288</v>
       </c>
       <c r="E14" t="n">
-        <v>226220.238118401</v>
+        <v>8577915169748440580096</v>
       </c>
       <c r="F14" t="n">
-        <v>311071.352296651</v>
+        <v>13118789167100133900288</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
         <v>63209</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-4286.81962738877</v>
+      </c>
+      <c r="J14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -747,25 +843,31 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>36949.750186854</v>
+        <v>38422.6553661416</v>
       </c>
       <c r="C15" t="n">
-        <v>-211171.470653799</v>
+        <v>-180993516736409396838400</v>
       </c>
       <c r="D15" t="n">
-        <v>-313400.414100929</v>
+        <v>-276805696919313026383872</v>
       </c>
       <c r="E15" t="n">
-        <v>274159.838195142</v>
+        <v>180993516736409396838400</v>
       </c>
       <c r="F15" t="n">
-        <v>348863.744229143</v>
+        <v>276805696919313026383872</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
         <v>18529</v>
+      </c>
+      <c r="I15" t="n">
+        <v>19893.6553661416</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -773,25 +875,31 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>79591.4220465758</v>
+        <v>80573.4635270812</v>
       </c>
       <c r="C16" t="n">
-        <v>-176485.632659604</v>
+        <v>-22087827122190976710344704</v>
       </c>
       <c r="D16" t="n">
-        <v>-282302.591769123</v>
+        <v>-33780416504617554124210176</v>
       </c>
       <c r="E16" t="n">
-        <v>334295.156269355</v>
+        <v>22087827122190976710344704</v>
       </c>
       <c r="F16" t="n">
-        <v>406595.240890136</v>
+        <v>33780416504617554124210176</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H16" t="n">
         <v>36206</v>
+      </c>
+      <c r="I16" t="n">
+        <v>44367.4635270812</v>
+      </c>
+      <c r="J16" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -799,25 +907,31 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>182104.439559921</v>
+        <v>181769.626737185</v>
       </c>
       <c r="C17" t="n">
-        <v>-62648.7956882815</v>
+        <v>-2332844876138982112174800896</v>
       </c>
       <c r="D17" t="n">
-        <v>-171936.035529238</v>
+        <v>-3567778356860882756655120384</v>
       </c>
       <c r="E17" t="n">
-        <v>409039.89478865</v>
+        <v>2332844876138982112174800896</v>
       </c>
       <c r="F17" t="n">
-        <v>484295.897957021</v>
+        <v>3567778356860882756655120384</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H17" t="n">
         <v>144167</v>
+      </c>
+      <c r="I17" t="n">
+        <v>37602.6267371854</v>
+      </c>
+      <c r="J17" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -825,25 +939,31 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>297254.0078743</v>
+        <v>296617.708893521</v>
       </c>
       <c r="C18" t="n">
-        <v>83714.3906057662</v>
+        <v>-135607195071372970720455819264</v>
       </c>
       <c r="D18" t="n">
-        <v>-28936.2762760769</v>
+        <v>-207393307870090999015726383104</v>
       </c>
       <c r="E18" t="n">
-        <v>596164.590196783</v>
+        <v>135607195071372970720455819264</v>
       </c>
       <c r="F18" t="n">
-        <v>705848.535017924</v>
+        <v>207393307870090999015726383104</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H18" t="n">
         <v>240838</v>
+      </c>
+      <c r="I18" t="n">
+        <v>55779.7088935213</v>
+      </c>
+      <c r="J18" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -851,25 +971,31 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>319069.157568579</v>
+        <v>319793.831768466</v>
       </c>
       <c r="C19" t="n">
-        <v>109625.882344073</v>
+        <v>-5556672589737445885947431354368</v>
       </c>
       <c r="D19" t="n">
-        <v>-6290.65964106913</v>
+        <v>-8498197374631725417575235977216</v>
       </c>
       <c r="E19" t="n">
-        <v>574156.115985976</v>
+        <v>5556672589737445885947431354368</v>
       </c>
       <c r="F19" t="n">
-        <v>679791.240247449</v>
+        <v>8498197374631725417575235977216</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H19" t="n">
         <v>224426</v>
+      </c>
+      <c r="I19" t="n">
+        <v>95367.8317684663</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -877,25 +1003,31 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>275483.252554758</v>
+        <v>277318.332380656</v>
       </c>
       <c r="C20" t="n">
-        <v>29043.1673564049</v>
+        <v>-201570822366331615582778376060928</v>
       </c>
       <c r="D20" t="n">
-        <v>-90049.723542516</v>
+        <v>-308275970155163761945238757703680</v>
       </c>
       <c r="E20" t="n">
-        <v>478986.81963429</v>
+        <v>201570822366331615582778376060928</v>
       </c>
       <c r="F20" t="n">
-        <v>598079.710533211</v>
+        <v>308275970155163761945238757703680</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H20" t="n">
         <v>162987</v>
+      </c>
+      <c r="I20" t="n">
+        <v>114331.332380656</v>
+      </c>
+      <c r="J20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -903,25 +1035,31 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>172258.172570375</v>
+        <v>174349.258358098</v>
       </c>
       <c r="C21" t="n">
-        <v>-103534.77082739</v>
+        <v>-4337415188332230918029770311598080</v>
       </c>
       <c r="D21" t="n">
-        <v>-225721.466582416</v>
+        <v>-6633504092763973313601243602485248</v>
       </c>
       <c r="E21" t="n">
-        <v>358097.554434114</v>
+        <v>4337415188332230918029770311598080</v>
       </c>
       <c r="F21" t="n">
-        <v>480284.25018914</v>
+        <v>6633504092763973313601243602485248</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
         <v>71283</v>
+      </c>
+      <c r="I21" t="n">
+        <v>103066.258358098</v>
+      </c>
+      <c r="J21" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -929,25 +1067,31 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>174029.626926967</v>
+        <v>176275.981840536</v>
       </c>
       <c r="C22" t="n">
-        <v>-93730.386690667</v>
+        <v>-151841359915879421882507564509298688</v>
       </c>
       <c r="D22" t="n">
-        <v>-218934.462408675</v>
+        <v>-232221320468083953664759477858992128</v>
       </c>
       <c r="E22" t="n">
-        <v>379301.871435058</v>
+        <v>151841359915879421882507564509298688</v>
       </c>
       <c r="F22" t="n">
-        <v>504505.947153066</v>
+        <v>232221320468083953664759477858992128</v>
       </c>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H22" t="n">
         <v>86635</v>
+      </c>
+      <c r="I22" t="n">
+        <v>89640.9818405355</v>
+      </c>
+      <c r="J22" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -955,25 +1099,31 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>161656.068040679</v>
+        <v>163956.977078498</v>
       </c>
       <c r="C23" t="n">
-        <v>-106865.371185745</v>
+        <v>-6492297837326988248351111673100107776</v>
       </c>
       <c r="D23" t="n">
-        <v>-235015.800499383</v>
+        <v>-9929112710077159809912078584470568960</v>
       </c>
       <c r="E23" t="n">
-        <v>377298.47580069</v>
+        <v>6492297837326988248351111673100107776</v>
       </c>
       <c r="F23" t="n">
-        <v>505448.905114328</v>
+        <v>9929112710077159809912078584470568960</v>
       </c>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H23" t="n">
         <v>132070</v>
+      </c>
+      <c r="I23" t="n">
+        <v>31886.9770784981</v>
+      </c>
+      <c r="J23" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -981,25 +1131,31 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>131849.295428054</v>
+        <v>134096.506889422</v>
       </c>
       <c r="C24" t="n">
-        <v>-144941.412293999</v>
+        <v>-206512465498563689284544443744606224384</v>
       </c>
       <c r="D24" t="n">
-        <v>-275971.960221338</v>
+        <v>-315833561144105845875553783914432561152</v>
       </c>
       <c r="E24" t="n">
-        <v>350103.781834662</v>
+        <v>206512465498563689284544443744606224384</v>
       </c>
       <c r="F24" t="n">
-        <v>481134.329762002</v>
+        <v>315833561144105845875553783914432561152</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H24" t="n">
         <v>113473</v>
+      </c>
+      <c r="I24" t="n">
+        <v>20623.5068894222</v>
+      </c>
+      <c r="J24" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1007,25 +1163,31 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>97204.6852620616</v>
+        <v>99205.9367119199</v>
       </c>
       <c r="C25" t="n">
-        <v>-188980.469177104</v>
+        <v>-4989854795429099351929559626312402862080</v>
       </c>
       <c r="D25" t="n">
-        <v>-322829.176481314</v>
+        <v>-7631324364985257210359608594174417305600</v>
       </c>
       <c r="E25" t="n">
-        <v>316711.984524812</v>
+        <v>4989854795429099351929559626312402862080</v>
       </c>
       <c r="F25" t="n">
-        <v>450560.691829022</v>
+        <v>7631324364985257210359608594174417305600</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H25" t="n">
         <v>74421</v>
+      </c>
+      <c r="I25" t="n">
+        <v>24784.9367119199</v>
+      </c>
+      <c r="J25" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -1033,25 +1195,31 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>58206.3778760113</v>
+        <v>59999.8495151354</v>
       </c>
       <c r="C26" t="n">
-        <v>-245376.291388587</v>
+        <v>-111234555426187871588194917982013480763392</v>
       </c>
       <c r="D26" t="n">
-        <v>-381985.033436368</v>
+        <v>-170118572153595661873966912948118273130496</v>
       </c>
       <c r="E26" t="n">
-        <v>270743.821794618</v>
+        <v>111234555426187871588194917982013480763392</v>
       </c>
       <c r="F26" t="n">
-        <v>407352.563842399</v>
+        <v>170118572153595661873966912948118273130496</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H26" t="n">
         <v>44183</v>
+      </c>
+      <c r="I26" t="n">
+        <v>15816.8495151354</v>
+      </c>
+      <c r="J26" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -1059,25 +1227,31 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>38111.888171248</v>
+        <v>39592.0014006528</v>
       </c>
       <c r="C27" t="n">
-        <v>-281227.011879203</v>
+        <v>-1648435605060458126596143066161282086338560</v>
       </c>
       <c r="D27" t="n">
-        <v>-420541.118705275</v>
+        <v>-2521064702830756900275519997878866831998976</v>
       </c>
       <c r="E27" t="n">
-        <v>300013.645992733</v>
+        <v>1648435605060458126596143066161282086338560</v>
       </c>
       <c r="F27" t="n">
-        <v>384428.319565866</v>
+        <v>2521064702830756900275519997878866831998976</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H27" t="n">
         <v>18134</v>
+      </c>
+      <c r="I27" t="n">
+        <v>21458.0014006528</v>
+      </c>
+      <c r="J27" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -1085,25 +1259,31 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>79768.2853652688</v>
+        <v>80532.3974181003</v>
       </c>
       <c r="C28" t="n">
-        <v>-244776.436738788</v>
+        <v>-147136022106660254145953666478189209291063296</v>
       </c>
       <c r="D28" t="n">
-        <v>-386744.363812531</v>
+        <v>-225025127283890762853792687659789184598540288</v>
       </c>
       <c r="E28" t="n">
-        <v>336246.532246313</v>
+        <v>147136022106660254145953666478189209291063296</v>
       </c>
       <c r="F28" t="n">
-        <v>433559.086517466</v>
+        <v>225025127283890762853792687659789184598540288</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H28" t="n">
         <v>33287</v>
+      </c>
+      <c r="I28" t="n">
+        <v>47245.3974181003</v>
+      </c>
+      <c r="J28" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -1111,25 +1291,31 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>181367.185456651</v>
+        <v>180906.050697436</v>
       </c>
       <c r="C29" t="n">
-        <v>-129305.261359897</v>
+        <v>-13740887127495831128801300515116632417616527360</v>
       </c>
       <c r="D29" t="n">
-        <v>-273878.302672877</v>
+        <v>-21014873384417541762715439109247953489174200320</v>
       </c>
       <c r="E29" t="n">
-        <v>416904.69070596</v>
+        <v>13740887127495831128801300515116632417616527360</v>
       </c>
       <c r="F29" t="n">
-        <v>561477.73201894</v>
+        <v>21014873384417541762715439109247953489174200320</v>
       </c>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H29" t="n">
         <v>44794</v>
+      </c>
+      <c r="I29" t="n">
+        <v>136112.050697436</v>
+      </c>
+      <c r="J29" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -1137,25 +1323,31 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>297651.385120554</v>
+        <v>296362.911669027</v>
       </c>
       <c r="C30" t="n">
-        <v>18577.5324505722</v>
+        <v>-540881499806505071022578815220045300262200410112</v>
       </c>
       <c r="D30" t="n">
-        <v>-128554.504276151</v>
+        <v>-827206870192742083180959102593877945820829974528</v>
       </c>
       <c r="E30" t="n">
-        <v>598120.659351302</v>
+        <v>540881499806505071022578815220045300262200410112</v>
       </c>
       <c r="F30" t="n">
-        <v>721587.636056144</v>
+        <v>827206870192742083180959102593877945820829974528</v>
       </c>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H30" t="n">
         <v>70042</v>
+      </c>
+      <c r="I30" t="n">
+        <v>226320.911669027</v>
+      </c>
+      <c r="J30" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -1163,25 +1355,31 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>317010.512409435</v>
+        <v>316745.837651885</v>
       </c>
       <c r="C31" t="n">
-        <v>45907.0028779377</v>
+        <v>-11084436249309157827474000618174283594579507675136</v>
       </c>
       <c r="D31" t="n">
-        <v>-103740.276376391</v>
+        <v>-16952182355880478072186890104795119539198133010432</v>
       </c>
       <c r="E31" t="n">
-        <v>611287.882231092</v>
+        <v>11084436249309157827474000618174283594579507675136</v>
       </c>
       <c r="F31" t="n">
-        <v>760935.161485421</v>
+        <v>16952182355880478072186890104795119539198133010432</v>
       </c>
       <c r="G31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H31" t="n">
         <v>140661</v>
+      </c>
+      <c r="I31" t="n">
+        <v>176084.837651885</v>
+      </c>
+      <c r="J31" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1189,25 +1387,31 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>269865.130921329</v>
+        <v>271527.292643191</v>
       </c>
       <c r="C32" t="n">
-        <v>-33348.3010637033</v>
+        <v>-288014925998460665939015964719334144851348627128320</v>
       </c>
       <c r="D32" t="n">
-        <v>-185469.240270284</v>
+        <v>-440480818052034874362400622760060964485473845116928</v>
       </c>
       <c r="E32" t="n">
-        <v>541378.288054398</v>
+        <v>288014925998460665939015964719334144851348627128320</v>
       </c>
       <c r="F32" t="n">
-        <v>693499.227260979</v>
+        <v>440480818052034874362400622760060964485473845116928</v>
       </c>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H32" t="n">
         <v>108973</v>
+      </c>
+      <c r="I32" t="n">
+        <v>162554.292643191</v>
+      </c>
+      <c r="J32" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -1215,25 +1419,31 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>168751.887251719</v>
+        <v>171569.032871392</v>
       </c>
       <c r="C33" t="n">
-        <v>-164679.977961761</v>
+        <v>-4278960360951674665085410277975629789515245602996224</v>
       </c>
       <c r="D33" t="n">
-        <v>-319234.991151115</v>
+        <v>-6544105148961263369896474060274646992765739069341696</v>
       </c>
       <c r="E33" t="n">
-        <v>419242.761568485</v>
+        <v>4278960360951674665085410277975629789515245602996224</v>
       </c>
       <c r="F33" t="n">
-        <v>573797.774757839</v>
+        <v>6544105148961263369896474060274646992765739069341696</v>
       </c>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H33" t="n">
         <v>54528</v>
+      </c>
+      <c r="I33" t="n">
+        <v>117041.032871392</v>
+      </c>
+      <c r="J33" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1241,25 +1451,31 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>173215.366755502</v>
+        <v>176404.996205268</v>
       </c>
       <c r="C34" t="n">
-        <v>-153702.402096385</v>
+        <v>-83623002966841896587196114439800330163406863119417344</v>
       </c>
       <c r="D34" t="n">
-        <v>-310653.745062383</v>
+        <v>-127890346748901209502698518112876070157155086997913600</v>
       </c>
       <c r="E34" t="n">
-        <v>439273.886840776</v>
+        <v>83623002966841896587196114439800330163406863119417344</v>
       </c>
       <c r="F34" t="n">
-        <v>596225.229806775</v>
+        <v>127890346748901209502698518112876070157155086997913600</v>
       </c>
       <c r="G34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H34" t="n">
         <v>44872</v>
+      </c>
+      <c r="I34" t="n">
+        <v>131532.996205268</v>
+      </c>
+      <c r="J34" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -1267,25 +1483,31 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>164017.607266157</v>
+        <v>167179.537079991</v>
       </c>
       <c r="C35" t="n">
-        <v>-165730.28383758</v>
+        <v>-2578014310997742045039967529073752845899909544399601664</v>
       </c>
       <c r="D35" t="n">
-        <v>-325041.915602808</v>
+        <v>-3942732650821740992603511809684337462484849197672562688</v>
       </c>
       <c r="E35" t="n">
-        <v>436163.388452525</v>
+        <v>2578014310997742045039967529073752845899909544399601664</v>
       </c>
       <c r="F35" t="n">
-        <v>595475.020217753</v>
+        <v>3942732650821740992603511809684337462484849197672562688</v>
       </c>
       <c r="G35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H35" t="n">
         <v>47395</v>
+      </c>
+      <c r="I35" t="n">
+        <v>119784.537079991</v>
+      </c>
+      <c r="J35" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -1293,25 +1515,31 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>135605.392816469</v>
+        <v>138553.161796966</v>
       </c>
       <c r="C36" t="n">
-        <v>-202759.242557941</v>
+        <v>-50209046004259834242222884488836724431278785719682727936</v>
       </c>
       <c r="D36" t="n">
-        <v>-364396.701002971</v>
+        <v>-76788109438768551501727244710353658608586221850560823296</v>
       </c>
       <c r="E36" t="n">
-        <v>407921.612098604</v>
+        <v>50209046004259834242222884488836724431278785719682727936</v>
       </c>
       <c r="F36" t="n">
-        <v>569559.070543634</v>
+        <v>76788109438768551501727244710353658608586221850560823296</v>
       </c>
       <c r="G36" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H36" t="n">
         <v>50633</v>
+      </c>
+      <c r="I36" t="n">
+        <v>87920.1617969663</v>
+      </c>
+      <c r="J36" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/outcome/appendix/data/PHSMs/HFMD.xlsx
+++ b/outcome/appendix/data/PHSMs/HFMD.xlsx
@@ -526,16 +526,16 @@
         <v>181979.954122606</v>
       </c>
       <c r="C5" t="n">
-        <v>-2616309.36850858</v>
+        <v>-2980242.68844494</v>
       </c>
       <c r="D5" t="n">
-        <v>-4141921.18688694</v>
+        <v>-4698509.16900707</v>
       </c>
       <c r="E5" t="n">
-        <v>3147589.28520768</v>
+        <v>3511522.60514404</v>
       </c>
       <c r="F5" t="n">
-        <v>4673201.10358605</v>
+        <v>5229789.08570618</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -558,16 +558,16 @@
         <v>307981.558251585</v>
       </c>
       <c r="C6" t="n">
-        <v>-58489723.055713</v>
+        <v>-81995575.4598094</v>
       </c>
       <c r="D6" t="n">
-        <v>-89657289.4929187</v>
+        <v>-125606388.519898</v>
       </c>
       <c r="E6" t="n">
-        <v>59264145.9579497</v>
+        <v>82769998.3620461</v>
       </c>
       <c r="F6" t="n">
-        <v>90431712.3951553</v>
+        <v>126380811.422135</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -590,16 +590,16 @@
         <v>334364.218096093</v>
       </c>
       <c r="C7" t="n">
-        <v>-1195610775.65882</v>
+        <v>-1610552190.49053</v>
       </c>
       <c r="D7" t="n">
-        <v>-1828726322.81801</v>
+        <v>-2463324454.19998</v>
       </c>
       <c r="E7" t="n">
-        <v>1196356699.91869</v>
+        <v>1611298114.75039</v>
       </c>
       <c r="F7" t="n">
-        <v>1829472247.07788</v>
+        <v>2464070378.45985</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -622,16 +622,16 @@
         <v>288070.149698339</v>
       </c>
       <c r="C8" t="n">
-        <v>-23569651322.4517</v>
+        <v>-15527593134.4236</v>
       </c>
       <c r="D8" t="n">
-        <v>-36046831550.9862</v>
+        <v>-23747564916.7854</v>
       </c>
       <c r="E8" t="n">
-        <v>23570257699.667</v>
+        <v>15528199511.6389</v>
       </c>
       <c r="F8" t="n">
-        <v>36047437928.2015</v>
+        <v>23748171294.0007</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -654,16 +654,16 @@
         <v>177333.081101109</v>
       </c>
       <c r="C9" t="n">
-        <v>-187461241304.721</v>
+        <v>-136765229582.971</v>
       </c>
       <c r="D9" t="n">
-        <v>-286697316512.608</v>
+        <v>-209164457277.073</v>
       </c>
       <c r="E9" t="n">
-        <v>187461575495.962</v>
+        <v>136765563774.212</v>
       </c>
       <c r="F9" t="n">
-        <v>286697650703.85</v>
+        <v>209164791468.314</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -686,16 +686,16 @@
         <v>178895.417506343</v>
       </c>
       <c r="C10" t="n">
-        <v>-2048374388866.37</v>
+        <v>-1675915633940.19</v>
       </c>
       <c r="D10" t="n">
-        <v>-3132718380475.23</v>
+        <v>-2563091870697.04</v>
       </c>
       <c r="E10" t="n">
-        <v>2048374730475.83</v>
+        <v>1675915975549.65</v>
       </c>
       <c r="F10" t="n">
-        <v>3132718722084.69</v>
+        <v>2563092212306.5</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -718,16 +718,16 @@
         <v>167908.613297202</v>
       </c>
       <c r="C11" t="n">
-        <v>-23590895616102.8</v>
+        <v>-27499752279948.3</v>
       </c>
       <c r="D11" t="n">
-        <v>-36079161488703.9</v>
+        <v>-42057241878009.9</v>
       </c>
       <c r="E11" t="n">
-        <v>23590895966272.3</v>
+        <v>27499752630117.8</v>
       </c>
       <c r="F11" t="n">
-        <v>36079161838873.4</v>
+        <v>42057242228179.4</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -750,16 +750,16 @@
         <v>136006.237763421</v>
       </c>
       <c r="C12" t="n">
-        <v>-299723653278006</v>
+        <v>-162054176265721</v>
       </c>
       <c r="D12" t="n">
-        <v>-458387771224066</v>
+        <v>-247840475298538</v>
       </c>
       <c r="E12" t="n">
-        <v>299723653569983</v>
+        <v>162054176557698</v>
       </c>
       <c r="F12" t="n">
-        <v>458387771516044</v>
+        <v>247840475590515</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -782,16 +782,16 @@
         <v>99284.5649700158</v>
       </c>
       <c r="C13" t="n">
-        <v>-1278537625190466</v>
+        <v>-923317969341572</v>
       </c>
       <c r="D13" t="n">
-        <v>-1955354560593194</v>
+        <v>-1412092977694120</v>
       </c>
       <c r="E13" t="n">
-        <v>1278537625397710</v>
+        <v>923317969548815</v>
       </c>
       <c r="F13" t="n">
-        <v>1955354560800437</v>
+        <v>1412092977901363</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -814,16 +814,16 @@
         <v>58922.1803726112</v>
       </c>
       <c r="C14" t="n">
-        <v>-5638403342480251</v>
+        <v>-7413357912407282</v>
       </c>
       <c r="D14" t="n">
-        <v>-8623193774425464</v>
+        <v>-11337752536462800</v>
       </c>
       <c r="E14" t="n">
-        <v>5638403342591861</v>
+        <v>7413357912518892</v>
       </c>
       <c r="F14" t="n">
-        <v>8623193774537074</v>
+        <v>11337752536574408</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -846,16 +846,16 @@
         <v>38422.6553661416</v>
       </c>
       <c r="C15" t="n">
-        <v>-110222117591789264</v>
+        <v>-70221745386307784</v>
       </c>
       <c r="D15" t="n">
-        <v>-168570182104115552</v>
+        <v>-107394891933388352</v>
       </c>
       <c r="E15" t="n">
-        <v>110222117591854512</v>
+        <v>70221745386373032</v>
       </c>
       <c r="F15" t="n">
-        <v>168570182104180832</v>
+        <v>107394891933453600</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -878,16 +878,16 @@
         <v>80573.4635270812</v>
       </c>
       <c r="C16" t="n">
-        <v>-4008309649289379840</v>
+        <v>-5713727554785717248</v>
       </c>
       <c r="D16" t="n">
-        <v>-6130180605064558592</v>
+        <v>-8738392216075404288</v>
       </c>
       <c r="E16" t="n">
-        <v>4008309649289598976</v>
+        <v>5713727554785936384</v>
       </c>
       <c r="F16" t="n">
-        <v>6130180605064777728</v>
+        <v>8738392216075623424</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -910,16 +910,16 @@
         <v>181769.626737185</v>
       </c>
       <c r="C17" t="n">
-        <v>-208444948150345039872</v>
+        <v>-321326950730286825472</v>
       </c>
       <c r="D17" t="n">
-        <v>-318789038317301399552</v>
+        <v>-491427163467907072000</v>
       </c>
       <c r="E17" t="n">
-        <v>208444948150345564160</v>
+        <v>321326950730287349760</v>
       </c>
       <c r="F17" t="n">
-        <v>318789038317301923840</v>
+        <v>491427163467907596288</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -942,16 +942,16 @@
         <v>296617.708893521</v>
       </c>
       <c r="C18" t="n">
-        <v>-5693558491516988555264</v>
+        <v>-6269359079524049879040</v>
       </c>
       <c r="D18" t="n">
-        <v>-8707546295652456595456</v>
+        <v>-9588157302741542109184</v>
       </c>
       <c r="E18" t="n">
-        <v>5693558491516988555264</v>
+        <v>6269359079524049879040</v>
       </c>
       <c r="F18" t="n">
-        <v>8707546295652456595456</v>
+        <v>9588157302741542109184</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -974,16 +974,16 @@
         <v>319793.831768466</v>
       </c>
       <c r="C19" t="n">
-        <v>-99742717164950539730944</v>
+        <v>-117531426970226772672512</v>
       </c>
       <c r="D19" t="n">
-        <v>-152543322188048569991168</v>
+        <v>-179748806139808080461824</v>
       </c>
       <c r="E19" t="n">
-        <v>99742717164950539730944</v>
+        <v>117531426970226772672512</v>
       </c>
       <c r="F19" t="n">
-        <v>152543322188048569991168</v>
+        <v>179748806139808080461824</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1006,16 +1006,16 @@
         <v>277318.332380656</v>
       </c>
       <c r="C20" t="n">
-        <v>-3588362638439383398612992</v>
+        <v>-1690524694814232936448000</v>
       </c>
       <c r="D20" t="n">
-        <v>-5487927075194657302380544</v>
+        <v>-2585434410829526576660480</v>
       </c>
       <c r="E20" t="n">
-        <v>3588362638439383398612992</v>
+        <v>1690524694814232936448000</v>
       </c>
       <c r="F20" t="n">
-        <v>5487927075194657302380544</v>
+        <v>2585434410829526576660480</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1038,16 +1038,16 @@
         <v>174349.258358098</v>
       </c>
       <c r="C21" t="n">
-        <v>-22749420038758331142111232</v>
+        <v>-12110810763317937323376640</v>
       </c>
       <c r="D21" t="n">
-        <v>-34792235555650266569113600</v>
+        <v>-18521886717524440309039104</v>
       </c>
       <c r="E21" t="n">
-        <v>22749420038758331142111232</v>
+        <v>12110810763317937323376640</v>
       </c>
       <c r="F21" t="n">
-        <v>34792235555650266569113600</v>
+        <v>18521886717524440309039104</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1070,16 +1070,16 @@
         <v>176275.981840536</v>
       </c>
       <c r="C22" t="n">
-        <v>-214901362481097910565994496</v>
+        <v>-94985771861526322381586432</v>
       </c>
       <c r="D22" t="n">
-        <v>-328663271939860512009879552</v>
+        <v>-145268202152456103326121984</v>
       </c>
       <c r="E22" t="n">
-        <v>214901362481097910565994496</v>
+        <v>94985771861526322381586432</v>
       </c>
       <c r="F22" t="n">
-        <v>328663271939860512009879552</v>
+        <v>145268202152456103326121984</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1102,16 +1102,16 @@
         <v>163956.977078498</v>
       </c>
       <c r="C23" t="n">
-        <v>-3343754983849581936501587968</v>
+        <v>-1371107875722970820943806464</v>
       </c>
       <c r="D23" t="n">
-        <v>-5113831950013257836323143680</v>
+        <v>-2096928541610617055479857152</v>
       </c>
       <c r="E23" t="n">
-        <v>3343754983849581936501587968</v>
+        <v>1371107875722970820943806464</v>
       </c>
       <c r="F23" t="n">
-        <v>5113831950013257836323143680</v>
+        <v>2096928541610617055479857152</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1134,16 +1134,16 @@
         <v>134096.506889422</v>
       </c>
       <c r="C24" t="n">
-        <v>-30307967743741877938708021248</v>
+        <v>-10968965732720778814584520704</v>
       </c>
       <c r="D24" t="n">
-        <v>-46352036718157646457426935808</v>
+        <v>-16775585440177532497498734592</v>
       </c>
       <c r="E24" t="n">
-        <v>30307967743741877938708021248</v>
+        <v>10968965732720778814584520704</v>
       </c>
       <c r="F24" t="n">
-        <v>46352036718157646457426935808</v>
+        <v>16775585440177532497498734592</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1166,16 +1166,16 @@
         <v>99205.9367119199</v>
       </c>
       <c r="C25" t="n">
-        <v>-113552253169491292117404745728</v>
+        <v>-60478971018212733380156456960</v>
       </c>
       <c r="D25" t="n">
-        <v>-173663184969853334473179922432</v>
+        <v>-92494604356685416727830331392</v>
       </c>
       <c r="E25" t="n">
-        <v>113552253169491292117404745728</v>
+        <v>60478971018212733380156456960</v>
       </c>
       <c r="F25" t="n">
-        <v>173663184969853334473179922432</v>
+        <v>92494604356685416727830331392</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1198,16 +1198,16 @@
         <v>59999.8495151354</v>
       </c>
       <c r="C26" t="n">
-        <v>-1028176633690320469779541917696</v>
+        <v>-809522204377486066317841661952</v>
       </c>
       <c r="D26" t="n">
-        <v>-1572460465859051401919604981760</v>
+        <v>-1238057373517466138430446501888</v>
       </c>
       <c r="E26" t="n">
-        <v>1028176633690320469779541917696</v>
+        <v>809522204377486066317841661952</v>
       </c>
       <c r="F26" t="n">
-        <v>1572460465859051401919604981760</v>
+        <v>1238057373517466138430446501888</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1230,16 +1230,16 @@
         <v>39592.0014006528</v>
       </c>
       <c r="C27" t="n">
-        <v>-19299072954326545130710548611072</v>
+        <v>-6377088901689300279045537136640</v>
       </c>
       <c r="D27" t="n">
-        <v>-29515385055471367156091477557248</v>
+        <v>-9752915847915702988946668519424</v>
       </c>
       <c r="E27" t="n">
-        <v>19299072954326545130710548611072</v>
+        <v>6377088901689300279045537136640</v>
       </c>
       <c r="F27" t="n">
-        <v>29515385055471367156091477557248</v>
+        <v>9752915847915702988946668519424</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1262,16 +1262,16 @@
         <v>80532.3974181003</v>
       </c>
       <c r="C28" t="n">
-        <v>-811189415253980997904032382058496</v>
+        <v>-322673011050260489575059362414592</v>
       </c>
       <c r="D28" t="n">
-        <v>-1240607152520057343456559583199232</v>
+        <v>-493485785078692994077165214498816</v>
       </c>
       <c r="E28" t="n">
-        <v>811189415253980997904032382058496</v>
+        <v>322673011050260489575059362414592</v>
       </c>
       <c r="F28" t="n">
-        <v>1240607152520057343456559583199232</v>
+        <v>493485785078692994077165214498816</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1294,16 +1294,16 @@
         <v>180906.050697436</v>
       </c>
       <c r="C29" t="n">
-        <v>-64392535096727161595797319077330944</v>
+        <v>-16750801144747159546409890281947136</v>
       </c>
       <c r="D29" t="n">
-        <v>-98479884115458440163874536484241408</v>
+        <v>-25618139635251491283733871161507840</v>
       </c>
       <c r="E29" t="n">
-        <v>64392535096727161595797319077330944</v>
+        <v>16750801144747159546409890281947136</v>
       </c>
       <c r="F29" t="n">
-        <v>98479884115458440163874536484241408</v>
+        <v>25618139635251491283733871161507840</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1326,16 +1326,16 @@
         <v>296362.911669027</v>
       </c>
       <c r="C30" t="n">
-        <v>-1693620609620371950797848193211039744</v>
+        <v>-396154146677140474533018621553147904</v>
       </c>
       <c r="D30" t="n">
-        <v>-2590169203936863323918058508454461440</v>
+        <v>-605865484221415949163427911039975424</v>
       </c>
       <c r="E30" t="n">
-        <v>1693620609620371950797848193211039744</v>
+        <v>396154146677140474533018621553147904</v>
       </c>
       <c r="F30" t="n">
-        <v>2590169203936863323918058508454461440</v>
+        <v>605865484221415949163427911039975424</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1358,16 +1358,16 @@
         <v>316745.837651885</v>
       </c>
       <c r="C31" t="n">
-        <v>-14499286003430828356053259529444392960</v>
+        <v>-8035624528775752518286159319008280576</v>
       </c>
       <c r="D31" t="n">
-        <v>-22174744374170955344072288163866869760</v>
+        <v>-12289427201467529805202891918582743040</v>
       </c>
       <c r="E31" t="n">
-        <v>14499286003430828356053259529444392960</v>
+        <v>8035624528775752518286159319008280576</v>
       </c>
       <c r="F31" t="n">
-        <v>22174744374170955344072288163866869760</v>
+        <v>12289427201467529805202891918582743040</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1390,16 +1390,16 @@
         <v>271527.292643191</v>
       </c>
       <c r="C32" t="n">
-        <v>-613678043844111666380856282698850762752</v>
+        <v>-75952520734949433111022260935116980224</v>
       </c>
       <c r="D32" t="n">
-        <v>-938539576849817582571615677408455163904</v>
+        <v>-116159356500237325781415556625211588608</v>
       </c>
       <c r="E32" t="n">
-        <v>613678043844111666380856282698850762752</v>
+        <v>75952520734949433111022260935116980224</v>
       </c>
       <c r="F32" t="n">
-        <v>938539576849817582571615677408455163904</v>
+        <v>116159356500237325781415556625211588608</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1422,16 +1422,16 @@
         <v>171569.032871392</v>
       </c>
       <c r="C33" t="n">
-        <v>-4035484542283643812726797212630105718784</v>
+        <v>-1007050576765253851299890709538013184000</v>
       </c>
       <c r="D33" t="n">
-        <v>-6171741017446231458835508137426230968320</v>
+        <v>-1540150949939668558387190211304132444160</v>
       </c>
       <c r="E33" t="n">
-        <v>4035484542283643812726797212630105718784</v>
+        <v>1007050576765253851299890709538013184000</v>
       </c>
       <c r="F33" t="n">
-        <v>6171741017446231458835508137426230968320</v>
+        <v>1540150949939668558387190211304132444160</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1454,16 +1454,16 @@
         <v>176404.996205268</v>
       </c>
       <c r="C34" t="n">
-        <v>-29983648035323846351058058766243556491264</v>
+        <v>-10642152578602074517468173321621913731072</v>
       </c>
       <c r="D34" t="n">
-        <v>-45856032526780655435486447412814685405184</v>
+        <v>-16275767852678118557844776766022994624512</v>
       </c>
       <c r="E34" t="n">
-        <v>29983648035323846351058058766243556491264</v>
+        <v>10642152578602074517468173321621913731072</v>
       </c>
       <c r="F34" t="n">
-        <v>45856032526780655435486447412814685405184</v>
+        <v>16275767852678118557844776766022994624512</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1486,16 +1486,16 @@
         <v>167179.537079991</v>
       </c>
       <c r="C35" t="n">
-        <v>-276038473723049994191461073774044122185728</v>
+        <v>-172935430670301794831619312752075145740288</v>
       </c>
       <c r="D35" t="n">
-        <v>-422164414909573285802677909942569386639360</v>
+        <v>-264481917760896228519389461408666963935232</v>
       </c>
       <c r="E35" t="n">
-        <v>276038473723049994191461073774044122185728</v>
+        <v>172935430670301794831619312752075145740288</v>
       </c>
       <c r="F35" t="n">
-        <v>422164414909573285802677909942569386639360</v>
+        <v>264481917760896228519389461408666963935232</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1518,16 +1518,16 @@
         <v>138553.161796966</v>
       </c>
       <c r="C36" t="n">
-        <v>-2276818818000924411145990127219820606783488</v>
+        <v>-901031747688231817008128068046022374326272</v>
       </c>
       <c r="D36" t="n">
-        <v>-3482093895073598574048204160536487389036544</v>
+        <v>-1378009142882713648225630887313216018317312</v>
       </c>
       <c r="E36" t="n">
-        <v>2276818818000924411145990127219820606783488</v>
+        <v>901031747688231817008128068046022374326272</v>
       </c>
       <c r="F36" t="n">
-        <v>3482093895073598574048204160536487389036544</v>
+        <v>1378009142882713648225630887313216018317312</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>

--- a/outcome/appendix/data/PHSMs/HFMD.xlsx
+++ b/outcome/appendix/data/PHSMs/HFMD.xlsx
@@ -526,16 +526,16 @@
         <v>181979.954122606</v>
       </c>
       <c r="C5" t="n">
-        <v>-2980242.68844494</v>
+        <v>-8233306.37983217</v>
       </c>
       <c r="D5" t="n">
-        <v>-4698509.16900707</v>
+        <v>-12732376.8029159</v>
       </c>
       <c r="E5" t="n">
-        <v>3511522.60514404</v>
+        <v>8764586.29653127</v>
       </c>
       <c r="F5" t="n">
-        <v>5229789.08570618</v>
+        <v>13263656.719615</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -558,16 +558,16 @@
         <v>307981.558251585</v>
       </c>
       <c r="C6" t="n">
-        <v>-81995575.4598094</v>
+        <v>-412500347.402395</v>
       </c>
       <c r="D6" t="n">
-        <v>-125606388.519898</v>
+        <v>-631069818.273359</v>
       </c>
       <c r="E6" t="n">
-        <v>82769998.3620461</v>
+        <v>413274770.304631</v>
       </c>
       <c r="F6" t="n">
-        <v>126380811.422135</v>
+        <v>631844241.175596</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -590,16 +590,16 @@
         <v>334364.218096093</v>
       </c>
       <c r="C7" t="n">
-        <v>-1610552190.49053</v>
+        <v>-7857479696.66474</v>
       </c>
       <c r="D7" t="n">
-        <v>-2463324454.19998</v>
+        <v>-12017175625.9482</v>
       </c>
       <c r="E7" t="n">
-        <v>1611298114.75039</v>
+        <v>7858225620.92461</v>
       </c>
       <c r="F7" t="n">
-        <v>2464070378.45985</v>
+        <v>12017921550.2081</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -622,16 +622,16 @@
         <v>288070.149698339</v>
       </c>
       <c r="C8" t="n">
-        <v>-15527593134.4236</v>
+        <v>-125587060619.296</v>
       </c>
       <c r="D8" t="n">
-        <v>-23747564916.7854</v>
+        <v>-192068995148.381</v>
       </c>
       <c r="E8" t="n">
-        <v>15528199511.6389</v>
+        <v>125587666996.512</v>
       </c>
       <c r="F8" t="n">
-        <v>23748171294.0007</v>
+        <v>192069601525.596</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -654,16 +654,16 @@
         <v>177333.081101109</v>
       </c>
       <c r="C9" t="n">
-        <v>-136765229582.971</v>
+        <v>-1462914241987.9</v>
       </c>
       <c r="D9" t="n">
-        <v>-209164457277.073</v>
+        <v>-2237334350965.64</v>
       </c>
       <c r="E9" t="n">
-        <v>136765563774.212</v>
+        <v>1462914576179.14</v>
       </c>
       <c r="F9" t="n">
-        <v>209164791468.314</v>
+        <v>2237334685156.88</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -686,16 +686,16 @@
         <v>178895.417506343</v>
       </c>
       <c r="C10" t="n">
-        <v>-1675915633940.19</v>
+        <v>-24806093912290</v>
       </c>
       <c r="D10" t="n">
-        <v>-2563091870697.04</v>
+        <v>-37937646902582.3</v>
       </c>
       <c r="E10" t="n">
-        <v>1675915975549.65</v>
+        <v>24806094253899.4</v>
       </c>
       <c r="F10" t="n">
-        <v>2563092212306.5</v>
+        <v>37937647244191.8</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -718,16 +718,16 @@
         <v>167908.613297202</v>
       </c>
       <c r="C11" t="n">
-        <v>-27499752279948.3</v>
+        <v>-423973024545258</v>
       </c>
       <c r="D11" t="n">
-        <v>-42057241878009.9</v>
+        <v>-648410786569386</v>
       </c>
       <c r="E11" t="n">
-        <v>27499752630117.8</v>
+        <v>423973024895428</v>
       </c>
       <c r="F11" t="n">
-        <v>42057242228179.4</v>
+        <v>648410786919555</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -750,16 +750,16 @@
         <v>136006.237763421</v>
       </c>
       <c r="C12" t="n">
-        <v>-162054176265721</v>
+        <v>-6114342011509010</v>
       </c>
       <c r="D12" t="n">
-        <v>-247840475298538</v>
+        <v>-9351079155932584</v>
       </c>
       <c r="E12" t="n">
-        <v>162054176557698</v>
+        <v>6114342011800988</v>
       </c>
       <c r="F12" t="n">
-        <v>247840475590515</v>
+        <v>9351079156224560</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -782,16 +782,16 @@
         <v>99284.5649700158</v>
       </c>
       <c r="C13" t="n">
-        <v>-923317969341572</v>
+        <v>-98546496789660288</v>
       </c>
       <c r="D13" t="n">
-        <v>-1412092977694120</v>
+        <v>-150713860997327584</v>
       </c>
       <c r="E13" t="n">
-        <v>923317969548815</v>
+        <v>98546496789867520</v>
       </c>
       <c r="F13" t="n">
-        <v>1412092977901363</v>
+        <v>150713860997534816</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -814,16 +814,16 @@
         <v>58922.1803726112</v>
       </c>
       <c r="C14" t="n">
-        <v>-7413357912407282</v>
+        <v>-833061525555854208</v>
       </c>
       <c r="D14" t="n">
-        <v>-11337752536462800</v>
+        <v>-1274057658617624832</v>
       </c>
       <c r="E14" t="n">
-        <v>7413357912518892</v>
+        <v>833061525555965824</v>
       </c>
       <c r="F14" t="n">
-        <v>11337752536574408</v>
+        <v>1274057658617736448</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -846,16 +846,16 @@
         <v>38422.6553661416</v>
       </c>
       <c r="C15" t="n">
-        <v>-70221745386307784</v>
+        <v>-7349892049159619584</v>
       </c>
       <c r="D15" t="n">
-        <v>-107394891933388352</v>
+        <v>-11240689874611859456</v>
       </c>
       <c r="E15" t="n">
-        <v>70221745386373032</v>
+        <v>7349892049159685120</v>
       </c>
       <c r="F15" t="n">
-        <v>107394891933453600</v>
+        <v>11240689874611924992</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -878,16 +878,16 @@
         <v>80573.4635270812</v>
       </c>
       <c r="C16" t="n">
-        <v>-5713727554785717248</v>
+        <v>-397154497096448802816</v>
       </c>
       <c r="D16" t="n">
-        <v>-8738392216075404288</v>
+        <v>-607395388164789895168</v>
       </c>
       <c r="E16" t="n">
-        <v>5713727554785936384</v>
+        <v>397154497096449064960</v>
       </c>
       <c r="F16" t="n">
-        <v>8738392216075623424</v>
+        <v>607395388164790157312</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -910,16 +910,16 @@
         <v>181769.626737185</v>
       </c>
       <c r="C17" t="n">
-        <v>-321326950730286825472</v>
+        <v>-28121234883864629870592</v>
       </c>
       <c r="D17" t="n">
-        <v>-491427163467907072000</v>
+        <v>-43007717406785771929600</v>
       </c>
       <c r="E17" t="n">
-        <v>321326950730287349760</v>
+        <v>28121234883864629870592</v>
       </c>
       <c r="F17" t="n">
-        <v>491427163467907596288</v>
+        <v>43007717406785771929600</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -942,16 +942,16 @@
         <v>296617.708893521</v>
       </c>
       <c r="C18" t="n">
-        <v>-6269359079524049879040</v>
+        <v>-622367062000177281761280</v>
       </c>
       <c r="D18" t="n">
-        <v>-9588157302741542109184</v>
+        <v>-951828283371483209662464</v>
       </c>
       <c r="E18" t="n">
-        <v>6269359079524049879040</v>
+        <v>622367062000177281761280</v>
       </c>
       <c r="F18" t="n">
-        <v>9588157302741542109184</v>
+        <v>951828283371483209662464</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -974,16 +974,16 @@
         <v>319793.831768466</v>
       </c>
       <c r="C19" t="n">
-        <v>-117531426970226772672512</v>
+        <v>-12021601741887176037105664</v>
       </c>
       <c r="D19" t="n">
-        <v>-179748806139808080461824</v>
+        <v>-18385453292759321109594112</v>
       </c>
       <c r="E19" t="n">
-        <v>117531426970226772672512</v>
+        <v>12021601741887176037105664</v>
       </c>
       <c r="F19" t="n">
-        <v>179748806139808080461824</v>
+        <v>18385453292759321109594112</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1006,16 +1006,16 @@
         <v>277318.332380656</v>
       </c>
       <c r="C20" t="n">
-        <v>-1690524694814232936448000</v>
+        <v>-148971165754713545717579776</v>
       </c>
       <c r="D20" t="n">
-        <v>-2585434410829526576660480</v>
+        <v>-227831737297365667114123264</v>
       </c>
       <c r="E20" t="n">
-        <v>1690524694814232936448000</v>
+        <v>148971165754713545717579776</v>
       </c>
       <c r="F20" t="n">
-        <v>2585434410829526576660480</v>
+        <v>227831737297365667114123264</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1038,16 +1038,16 @@
         <v>174349.258358098</v>
       </c>
       <c r="C21" t="n">
-        <v>-12110810763317937323376640</v>
+        <v>-1137121341184883308586074112</v>
       </c>
       <c r="D21" t="n">
-        <v>-18521886717524440309039104</v>
+        <v>-1739077017807825045291008000</v>
       </c>
       <c r="E21" t="n">
-        <v>12110810763317937323376640</v>
+        <v>1137121341184883308586074112</v>
       </c>
       <c r="F21" t="n">
-        <v>18521886717524440309039104</v>
+        <v>1739077017807825045291008000</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1070,16 +1070,16 @@
         <v>176275.981840536</v>
       </c>
       <c r="C22" t="n">
-        <v>-94985771861526322381586432</v>
+        <v>-19968966953863175459410280448</v>
       </c>
       <c r="D22" t="n">
-        <v>-145268202152456103326121984</v>
+        <v>-30539899517355962341057888256</v>
       </c>
       <c r="E22" t="n">
-        <v>94985771861526322381586432</v>
+        <v>19968966953863175459410280448</v>
       </c>
       <c r="F22" t="n">
-        <v>145268202152456103326121984</v>
+        <v>30539899517355962341057888256</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1102,16 +1102,16 @@
         <v>163956.977078498</v>
       </c>
       <c r="C23" t="n">
-        <v>-1371107875722970820943806464</v>
+        <v>-351992902707257261911061823488</v>
       </c>
       <c r="D23" t="n">
-        <v>-2096928541610617055479857152</v>
+        <v>-538326689825205985681457807360</v>
       </c>
       <c r="E23" t="n">
-        <v>1371107875722970820943806464</v>
+        <v>351992902707257261911061823488</v>
       </c>
       <c r="F23" t="n">
-        <v>2096928541610617055479857152</v>
+        <v>538326689825205985681457807360</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1134,16 +1134,16 @@
         <v>134096.506889422</v>
       </c>
       <c r="C24" t="n">
-        <v>-10968965732720778814584520704</v>
+        <v>-4633865366503999613223185678336</v>
       </c>
       <c r="D24" t="n">
-        <v>-16775585440177532497498734592</v>
+        <v>-7086885515758246127482787856384</v>
       </c>
       <c r="E24" t="n">
-        <v>10968965732720778814584520704</v>
+        <v>4633865366503999613223185678336</v>
       </c>
       <c r="F24" t="n">
-        <v>16775585440177532497498734592</v>
+        <v>7086885515758246127482787856384</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1166,16 +1166,16 @@
         <v>99205.9367119199</v>
       </c>
       <c r="C25" t="n">
-        <v>-60478971018212733380156456960</v>
+        <v>-54465527307392554467652286808064</v>
       </c>
       <c r="D25" t="n">
-        <v>-92494604356685416727830331392</v>
+        <v>-83297835835507833175956827144192</v>
       </c>
       <c r="E25" t="n">
-        <v>60478971018212733380156456960</v>
+        <v>54465527307392554467652286808064</v>
       </c>
       <c r="F25" t="n">
-        <v>92494604356685416727830331392</v>
+        <v>83297835835507833175956827144192</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1198,16 +1198,16 @@
         <v>59999.8495151354</v>
       </c>
       <c r="C26" t="n">
-        <v>-809522204377486066317841661952</v>
+        <v>-356555332606721207574222365261824</v>
       </c>
       <c r="D26" t="n">
-        <v>-1238057373517466138430446501888</v>
+        <v>-545304324221944432663254555164672</v>
       </c>
       <c r="E26" t="n">
-        <v>809522204377486066317841661952</v>
+        <v>356555332606721207574222365261824</v>
       </c>
       <c r="F26" t="n">
-        <v>1238057373517466138430446501888</v>
+        <v>545304324221944432663254555164672</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1230,16 +1230,16 @@
         <v>39592.0014006528</v>
       </c>
       <c r="C27" t="n">
-        <v>-6377088901689300279045537136640</v>
+        <v>-4984013735925358376845410482257920</v>
       </c>
       <c r="D27" t="n">
-        <v>-9752915847915702988946668519424</v>
+        <v>-7622391235358105801225137087840256</v>
       </c>
       <c r="E27" t="n">
-        <v>6377088901689300279045537136640</v>
+        <v>4984013735925358376845410482257920</v>
       </c>
       <c r="F27" t="n">
-        <v>9752915847915702988946668519424</v>
+        <v>7622391235358105801225137087840256</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1262,16 +1262,16 @@
         <v>80532.3974181003</v>
       </c>
       <c r="C28" t="n">
-        <v>-322673011050260489575059362414592</v>
+        <v>-323970700445450342120540960007913472</v>
       </c>
       <c r="D28" t="n">
-        <v>-493485785078692994077165214498816</v>
+        <v>-495470429743857725309721061550456832</v>
       </c>
       <c r="E28" t="n">
-        <v>322673011050260489575059362414592</v>
+        <v>323970700445450342120540960007913472</v>
       </c>
       <c r="F28" t="n">
-        <v>493485785078692994077165214498816</v>
+        <v>495470429743857725309721061550456832</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1294,16 +1294,16 @@
         <v>180906.050697436</v>
       </c>
       <c r="C29" t="n">
-        <v>-16750801144747159546409890281947136</v>
+        <v>-31977680567527573386185213635777789952</v>
       </c>
       <c r="D29" t="n">
-        <v>-25618139635251491283733871161507840</v>
+        <v>-48905642118931308378966437293266567168</v>
       </c>
       <c r="E29" t="n">
-        <v>16750801144747159546409890281947136</v>
+        <v>31977680567527573386185213635777789952</v>
       </c>
       <c r="F29" t="n">
-        <v>25618139635251491283733871161507840</v>
+        <v>48905642118931308378966437293266567168</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1326,16 +1326,16 @@
         <v>296362.911669027</v>
       </c>
       <c r="C30" t="n">
-        <v>-396154146677140474533018621553147904</v>
+        <v>-307796356700104438944768819070630887424</v>
       </c>
       <c r="D30" t="n">
-        <v>-605865484221415949163427911039975424</v>
+        <v>-470733905622038969151644778566959235072</v>
       </c>
       <c r="E30" t="n">
-        <v>396154146677140474533018621553147904</v>
+        <v>307796356700104438944768819070630887424</v>
       </c>
       <c r="F30" t="n">
-        <v>605865484221415949163427911039975424</v>
+        <v>470733905622038969151644778566959235072</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1358,16 +1358,16 @@
         <v>316745.837651885</v>
       </c>
       <c r="C31" t="n">
-        <v>-8035624528775752518286159319008280576</v>
+        <v>-4386783134222063975450214259604229980160</v>
       </c>
       <c r="D31" t="n">
-        <v>-12289427201467529805202891918582743040</v>
+        <v>-6709005850583352519090729123494792003584</v>
       </c>
       <c r="E31" t="n">
-        <v>8035624528775752518286159319008280576</v>
+        <v>4386783134222063975450214259604229980160</v>
       </c>
       <c r="F31" t="n">
-        <v>12289427201467529805202891918582743040</v>
+        <v>6709005850583352519090729123494792003584</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1390,16 +1390,16 @@
         <v>271527.292643191</v>
       </c>
       <c r="C32" t="n">
-        <v>-75952520734949433111022260935116980224</v>
+        <v>-30385546040242306989258420428956191686656</v>
       </c>
       <c r="D32" t="n">
-        <v>-116159356500237325781415556625211588608</v>
+        <v>-46470682484126649859288457626245645991936</v>
       </c>
       <c r="E32" t="n">
-        <v>75952520734949433111022260935116980224</v>
+        <v>30385546040242306989258420428956191686656</v>
       </c>
       <c r="F32" t="n">
-        <v>116159356500237325781415556625211588608</v>
+        <v>46470682484126649859288457626245645991936</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1422,16 +1422,16 @@
         <v>171569.032871392</v>
       </c>
       <c r="C33" t="n">
-        <v>-1007050576765253851299890709538013184000</v>
+        <v>-128364703157105851844442379286081211203584</v>
       </c>
       <c r="D33" t="n">
-        <v>-1540150949939668558387190211304132444160</v>
+        <v>-196316872327480683938837485875720355840000</v>
       </c>
       <c r="E33" t="n">
-        <v>1007050576765253851299890709538013184000</v>
+        <v>128364703157105851844442379286081211203584</v>
       </c>
       <c r="F33" t="n">
-        <v>1540150949939668558387190211304132444160</v>
+        <v>196316872327480683938837485875720355840000</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1454,16 +1454,16 @@
         <v>176404.996205268</v>
       </c>
       <c r="C34" t="n">
-        <v>-10642152578602074517468173321621913731072</v>
+        <v>-2319877926325599063265579529618242289008640</v>
       </c>
       <c r="D34" t="n">
-        <v>-16275767852678118557844776766022994624512</v>
+        <v>-3547947118456699938360229368317148760375296</v>
       </c>
       <c r="E34" t="n">
-        <v>10642152578602074517468173321621913731072</v>
+        <v>2319877926325599063265579529618242289008640</v>
       </c>
       <c r="F34" t="n">
-        <v>16275767852678118557844776766022994624512</v>
+        <v>3547947118456699938360229368317148760375296</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1486,16 +1486,16 @@
         <v>167179.537079991</v>
       </c>
       <c r="C35" t="n">
-        <v>-172935430670301794831619312752075145740288</v>
+        <v>-26333309067570070197307212556284072143355904</v>
       </c>
       <c r="D35" t="n">
-        <v>-264481917760896228519389461408666963935232</v>
+        <v>-40273320835331724524372964309089562338000896</v>
       </c>
       <c r="E35" t="n">
-        <v>172935430670301794831619312752075145740288</v>
+        <v>26333309067570070197307212556284072143355904</v>
       </c>
       <c r="F35" t="n">
-        <v>264481917760896228519389461408666963935232</v>
+        <v>40273320835331724524372964309089562338000896</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1518,16 +1518,16 @@
         <v>138553.161796966</v>
       </c>
       <c r="C36" t="n">
-        <v>-901031747688231817008128068046022374326272</v>
+        <v>-119625629230039604491941324048521834283401216</v>
       </c>
       <c r="D36" t="n">
-        <v>-1378009142882713648225630887313216018317312</v>
+        <v>-182951612110265698747644128871951661826834432</v>
       </c>
       <c r="E36" t="n">
-        <v>901031747688231817008128068046022374326272</v>
+        <v>119625629230039604491941324048521834283401216</v>
       </c>
       <c r="F36" t="n">
-        <v>1378009142882713648225630887313216018317312</v>
+        <v>182951612110265698747644128871951661826834432</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>

--- a/outcome/appendix/data/PHSMs/HFMD.xlsx
+++ b/outcome/appendix/data/PHSMs/HFMD.xlsx
@@ -526,16 +526,16 @@
         <v>181979.954122606</v>
       </c>
       <c r="C5" t="n">
-        <v>-8233306.37983217</v>
+        <v>-3342647.50893827</v>
       </c>
       <c r="D5" t="n">
-        <v>-12732376.8029159</v>
+        <v>-5252759.51295542</v>
       </c>
       <c r="E5" t="n">
-        <v>8764586.29653127</v>
+        <v>3873927.42563738</v>
       </c>
       <c r="F5" t="n">
-        <v>13263656.719615</v>
+        <v>5784039.42965453</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -558,16 +558,16 @@
         <v>307981.558251585</v>
       </c>
       <c r="C6" t="n">
-        <v>-412500347.402395</v>
+        <v>-90891573.2272331</v>
       </c>
       <c r="D6" t="n">
-        <v>-631069818.273359</v>
+        <v>-139211643.040647</v>
       </c>
       <c r="E6" t="n">
-        <v>413274770.304631</v>
+        <v>91665996.1294698</v>
       </c>
       <c r="F6" t="n">
-        <v>631844241.175596</v>
+        <v>139986065.942884</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -590,16 +590,16 @@
         <v>334364.218096093</v>
       </c>
       <c r="C7" t="n">
-        <v>-7857479696.66474</v>
+        <v>-1759452797.97056</v>
       </c>
       <c r="D7" t="n">
-        <v>-12017175625.9482</v>
+        <v>-2691048281.92827</v>
       </c>
       <c r="E7" t="n">
-        <v>7858225620.92461</v>
+        <v>1760198722.23043</v>
       </c>
       <c r="F7" t="n">
-        <v>12017921550.2081</v>
+        <v>2691794206.18814</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -622,16 +622,16 @@
         <v>288070.149698339</v>
       </c>
       <c r="C8" t="n">
-        <v>-125587060619.296</v>
+        <v>-29861848117.4233</v>
       </c>
       <c r="D8" t="n">
-        <v>-192068995148.381</v>
+        <v>-45669916125.4582</v>
       </c>
       <c r="E8" t="n">
-        <v>125587666996.512</v>
+        <v>29862454494.6386</v>
       </c>
       <c r="F8" t="n">
-        <v>192069601525.596</v>
+        <v>45670522502.6736</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -654,16 +654,16 @@
         <v>177333.081101109</v>
       </c>
       <c r="C9" t="n">
-        <v>-1462914241987.9</v>
+        <v>-201311893158.708</v>
       </c>
       <c r="D9" t="n">
-        <v>-2237334350965.64</v>
+        <v>-307880060559.806</v>
       </c>
       <c r="E9" t="n">
-        <v>1462914576179.14</v>
+        <v>201312227349.949</v>
       </c>
       <c r="F9" t="n">
-        <v>2237334685156.88</v>
+        <v>307880394751.048</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -686,16 +686,16 @@
         <v>178895.417506343</v>
       </c>
       <c r="C10" t="n">
-        <v>-24806093912290</v>
+        <v>-4505326823837.44</v>
       </c>
       <c r="D10" t="n">
-        <v>-37937646902582.3</v>
+        <v>-6890302869262.39</v>
       </c>
       <c r="E10" t="n">
-        <v>24806094253899.4</v>
+        <v>4505327165446.9</v>
       </c>
       <c r="F10" t="n">
-        <v>37937647244191.8</v>
+        <v>6890303210871.84</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -718,16 +718,16 @@
         <v>167908.613297202</v>
       </c>
       <c r="C11" t="n">
-        <v>-423973024545258</v>
+        <v>-63907750867379.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-648410786569386</v>
+        <v>-97738470709583.9</v>
       </c>
       <c r="E11" t="n">
-        <v>423973024895428</v>
+        <v>63907751217549.2</v>
       </c>
       <c r="F11" t="n">
-        <v>648410786919555</v>
+        <v>97738471059753.4</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -750,16 +750,16 @@
         <v>136006.237763421</v>
       </c>
       <c r="C12" t="n">
-        <v>-6114342011509010</v>
+        <v>-631120287835074</v>
       </c>
       <c r="D12" t="n">
-        <v>-9351079155932584</v>
+        <v>-965215187141284</v>
       </c>
       <c r="E12" t="n">
-        <v>6114342011800988</v>
+        <v>631120288127051</v>
       </c>
       <c r="F12" t="n">
-        <v>9351079156224560</v>
+        <v>965215187433261</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -782,16 +782,16 @@
         <v>99284.5649700158</v>
       </c>
       <c r="C13" t="n">
-        <v>-98546496789660288</v>
+        <v>-5263058714524040</v>
       </c>
       <c r="D13" t="n">
-        <v>-150713860997327584</v>
+        <v>-8049153702741187</v>
       </c>
       <c r="E13" t="n">
-        <v>98546496789867520</v>
+        <v>5263058714731282</v>
       </c>
       <c r="F13" t="n">
-        <v>150713860997534816</v>
+        <v>8049153702948429</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -814,16 +814,16 @@
         <v>58922.1803726112</v>
       </c>
       <c r="C14" t="n">
-        <v>-833061525555854208</v>
+        <v>-55985541231164776</v>
       </c>
       <c r="D14" t="n">
-        <v>-1274057658617624832</v>
+        <v>-85622496525508880</v>
       </c>
       <c r="E14" t="n">
-        <v>833061525555965824</v>
+        <v>55985541231276392</v>
       </c>
       <c r="F14" t="n">
-        <v>1274057658617736448</v>
+        <v>85622496525620496</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -846,16 +846,16 @@
         <v>38422.6553661416</v>
       </c>
       <c r="C15" t="n">
-        <v>-7349892049159619584</v>
+        <v>-806519739929103872</v>
       </c>
       <c r="D15" t="n">
-        <v>-11240689874611859456</v>
+        <v>-1233465500399065344</v>
       </c>
       <c r="E15" t="n">
-        <v>7349892049159685120</v>
+        <v>806519739929169152</v>
       </c>
       <c r="F15" t="n">
-        <v>11240689874611924992</v>
+        <v>1233465500399130368</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -878,16 +878,16 @@
         <v>80573.4635270812</v>
       </c>
       <c r="C16" t="n">
-        <v>-397154497096448802816</v>
+        <v>-34342419714255355904</v>
       </c>
       <c r="D16" t="n">
-        <v>-607395388164789895168</v>
+        <v>-52522198553356902400</v>
       </c>
       <c r="E16" t="n">
-        <v>397154497096449064960</v>
+        <v>34342419714255577088</v>
       </c>
       <c r="F16" t="n">
-        <v>607395388164790157312</v>
+        <v>52522198553357115392</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -910,16 +910,16 @@
         <v>181769.626737185</v>
       </c>
       <c r="C17" t="n">
-        <v>-28121234883864629870592</v>
+        <v>-1574943048716368740352</v>
       </c>
       <c r="D17" t="n">
-        <v>-43007717406785771929600</v>
+        <v>-2408667537208330682368</v>
       </c>
       <c r="E17" t="n">
-        <v>28121234883864629870592</v>
+        <v>1574943048716369264640</v>
       </c>
       <c r="F17" t="n">
-        <v>43007717406785771929600</v>
+        <v>2408667537208331730944</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -942,16 +942,16 @@
         <v>296617.708893521</v>
       </c>
       <c r="C18" t="n">
-        <v>-622367062000177281761280</v>
+        <v>-34382588308564582858752</v>
       </c>
       <c r="D18" t="n">
-        <v>-951828283371483209662464</v>
+        <v>-52583631117033840574464</v>
       </c>
       <c r="E18" t="n">
-        <v>622367062000177281761280</v>
+        <v>34382588308564582858752</v>
       </c>
       <c r="F18" t="n">
-        <v>951828283371483209662464</v>
+        <v>52583631117033840574464</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -974,16 +974,16 @@
         <v>319793.831768466</v>
       </c>
       <c r="C19" t="n">
-        <v>-12021601741887176037105664</v>
+        <v>-309654325752114932875264</v>
       </c>
       <c r="D19" t="n">
-        <v>-18385453292759321109594112</v>
+        <v>-473575424078444691980288</v>
       </c>
       <c r="E19" t="n">
-        <v>12021601741887176037105664</v>
+        <v>309654325752114932875264</v>
       </c>
       <c r="F19" t="n">
-        <v>18385453292759321109594112</v>
+        <v>473575424078444691980288</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1006,16 +1006,16 @@
         <v>277318.332380656</v>
       </c>
       <c r="C20" t="n">
-        <v>-148971165754713545717579776</v>
+        <v>-3565278113581518232223744</v>
       </c>
       <c r="D20" t="n">
-        <v>-227831737297365667114123264</v>
+        <v>-5452622341044213855027200</v>
       </c>
       <c r="E20" t="n">
-        <v>148971165754713545717579776</v>
+        <v>3565278113581518232223744</v>
       </c>
       <c r="F20" t="n">
-        <v>227831737297365667114123264</v>
+        <v>5452622341044213855027200</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1038,16 +1038,16 @@
         <v>174349.258358098</v>
       </c>
       <c r="C21" t="n">
-        <v>-1137121341184883308586074112</v>
+        <v>-25123714796669603017654272</v>
       </c>
       <c r="D21" t="n">
-        <v>-1739077017807825045291008000</v>
+        <v>-38423406036262803061342208</v>
       </c>
       <c r="E21" t="n">
-        <v>1137121341184883308586074112</v>
+        <v>25123714796669603017654272</v>
       </c>
       <c r="F21" t="n">
-        <v>1739077017807825045291008000</v>
+        <v>38423406036262803061342208</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1070,16 +1070,16 @@
         <v>176275.981840536</v>
       </c>
       <c r="C22" t="n">
-        <v>-19968966953863175459410280448</v>
+        <v>-303366838897446766178729984</v>
       </c>
       <c r="D22" t="n">
-        <v>-30539899517355962341057888256</v>
+        <v>-463959542736064350273929216</v>
       </c>
       <c r="E22" t="n">
-        <v>19968966953863175459410280448</v>
+        <v>303366838897446766178729984</v>
       </c>
       <c r="F22" t="n">
-        <v>30539899517355962341057888256</v>
+        <v>463959542736064350273929216</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1102,16 +1102,16 @@
         <v>163956.977078498</v>
       </c>
       <c r="C23" t="n">
-        <v>-351992902707257261911061823488</v>
+        <v>-2650823833862542103001694208</v>
       </c>
       <c r="D23" t="n">
-        <v>-538326689825205985681457807360</v>
+        <v>-4054085206882105368843911168</v>
       </c>
       <c r="E23" t="n">
-        <v>351992902707257261911061823488</v>
+        <v>2650823833862542103001694208</v>
       </c>
       <c r="F23" t="n">
-        <v>538326689825205985681457807360</v>
+        <v>4054085206882105368843911168</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1134,16 +1134,16 @@
         <v>134096.506889422</v>
       </c>
       <c r="C24" t="n">
-        <v>-4633865366503999613223185678336</v>
+        <v>-8501159080236943669534392320</v>
       </c>
       <c r="D24" t="n">
-        <v>-7086885515758246127482787856384</v>
+        <v>-13001400858208529731981148160</v>
       </c>
       <c r="E24" t="n">
-        <v>4633865366503999613223185678336</v>
+        <v>8501159080236943669534392320</v>
       </c>
       <c r="F24" t="n">
-        <v>7086885515758246127482787856384</v>
+        <v>13001400858208529731981148160</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1166,16 +1166,16 @@
         <v>99205.9367119199</v>
       </c>
       <c r="C25" t="n">
-        <v>-54465527307392554467652286808064</v>
+        <v>-57244017268931525749644460032</v>
       </c>
       <c r="D25" t="n">
-        <v>-83297835835507833175956827144192</v>
+        <v>-87547169535715424158705778688</v>
       </c>
       <c r="E25" t="n">
-        <v>54465527307392554467652286808064</v>
+        <v>57244017268931525749644460032</v>
       </c>
       <c r="F25" t="n">
-        <v>83297835835507833175956827144192</v>
+        <v>87547169535715424158705778688</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1198,16 +1198,16 @@
         <v>59999.8495151354</v>
       </c>
       <c r="C26" t="n">
-        <v>-356555332606721207574222365261824</v>
+        <v>-681203275255209194226012127232</v>
       </c>
       <c r="D26" t="n">
-        <v>-545304324221944432663254555164672</v>
+        <v>-1041810506535149979881424551936</v>
       </c>
       <c r="E26" t="n">
-        <v>356555332606721207574222365261824</v>
+        <v>681203275255209194226012127232</v>
       </c>
       <c r="F26" t="n">
-        <v>545304324221944432663254555164672</v>
+        <v>1041810506535149979881424551936</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1230,16 +1230,16 @@
         <v>39592.0014006528</v>
       </c>
       <c r="C27" t="n">
-        <v>-4984013735925358376845410482257920</v>
+        <v>-4679235434956804218334006476800</v>
       </c>
       <c r="D27" t="n">
-        <v>-7622391235358105801225137087840256</v>
+        <v>-7156273047664404768456001454080</v>
       </c>
       <c r="E27" t="n">
-        <v>4984013735925358376845410482257920</v>
+        <v>4679235434956804218334006476800</v>
       </c>
       <c r="F27" t="n">
-        <v>7622391235358105801225137087840256</v>
+        <v>7156273047664404768456001454080</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1262,16 +1262,16 @@
         <v>80532.3974181003</v>
       </c>
       <c r="C28" t="n">
-        <v>-323970700445450342120540960007913472</v>
+        <v>-148941746494175960304213062320128</v>
       </c>
       <c r="D28" t="n">
-        <v>-495470429743857725309721061550456832</v>
+        <v>-227786744421030658524143966748672</v>
       </c>
       <c r="E28" t="n">
-        <v>323970700445450342120540960007913472</v>
+        <v>148941746494175960304213062320128</v>
       </c>
       <c r="F28" t="n">
-        <v>495470429743857725309721061550456832</v>
+        <v>227786744421030658524143966748672</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1294,16 +1294,16 @@
         <v>180906.050697436</v>
       </c>
       <c r="C29" t="n">
-        <v>-31977680567527573386185213635777789952</v>
+        <v>-4028335260174032370889717505327104</v>
       </c>
       <c r="D29" t="n">
-        <v>-48905642118931308378966437293266567168</v>
+        <v>-6160807133998318598995639074291712</v>
       </c>
       <c r="E29" t="n">
-        <v>31977680567527573386185213635777789952</v>
+        <v>4028335260174032370889717505327104</v>
       </c>
       <c r="F29" t="n">
-        <v>48905642118931308378966437293266567168</v>
+        <v>6160807133998318598995639074291712</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1326,16 +1326,16 @@
         <v>296362.911669027</v>
       </c>
       <c r="C30" t="n">
-        <v>-307796356700104438944768819070630887424</v>
+        <v>-55926952440643355037978762577707008</v>
       </c>
       <c r="D30" t="n">
-        <v>-470733905622038969151644778566959235072</v>
+        <v>-85532892702732697845342050893955072</v>
       </c>
       <c r="E30" t="n">
-        <v>307796356700104438944768819070630887424</v>
+        <v>55926952440643355037978762577707008</v>
       </c>
       <c r="F30" t="n">
-        <v>470733905622038969151644778566959235072</v>
+        <v>85532892702732697845342050893955072</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1358,16 +1358,16 @@
         <v>316745.837651885</v>
       </c>
       <c r="C31" t="n">
-        <v>-4386783134222063975450214259604229980160</v>
+        <v>-532892836791013037084335683240198144</v>
       </c>
       <c r="D31" t="n">
-        <v>-6709005850583352519090729123494792003584</v>
+        <v>-814989264428016049438172294563233792</v>
       </c>
       <c r="E31" t="n">
-        <v>4386783134222063975450214259604229980160</v>
+        <v>532892836791013037084335683240198144</v>
       </c>
       <c r="F31" t="n">
-        <v>6709005850583352519090729123494792003584</v>
+        <v>814989264428016049438172294563233792</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1390,16 +1390,16 @@
         <v>271527.292643191</v>
       </c>
       <c r="C32" t="n">
-        <v>-30385546040242306989258420428956191686656</v>
+        <v>-4350738946751677075724531652932665344</v>
       </c>
       <c r="D32" t="n">
-        <v>-46470682484126649859288457626245645991936</v>
+        <v>-6653881022840703975321673579920097280</v>
       </c>
       <c r="E32" t="n">
-        <v>30385546040242306989258420428956191686656</v>
+        <v>4350738946751677075724531652932665344</v>
       </c>
       <c r="F32" t="n">
-        <v>46470682484126649859288457626245645991936</v>
+        <v>6653881022840703975321673579920097280</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1422,16 +1422,16 @@
         <v>171569.032871392</v>
       </c>
       <c r="C33" t="n">
-        <v>-128364703157105851844442379286081211203584</v>
+        <v>-8364727480549549350035063742348132352</v>
       </c>
       <c r="D33" t="n">
-        <v>-196316872327480683938837485875720355840000</v>
+        <v>-12792746732280443594558203771408613376</v>
       </c>
       <c r="E33" t="n">
-        <v>128364703157105851844442379286081211203584</v>
+        <v>8364727480549549350035063742348132352</v>
       </c>
       <c r="F33" t="n">
-        <v>196316872327480683938837485875720355840000</v>
+        <v>12792746732280443594558203771408613376</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1454,16 +1454,16 @@
         <v>176404.996205268</v>
       </c>
       <c r="C34" t="n">
-        <v>-2319877926325599063265579529618242289008640</v>
+        <v>-84083781566718709747469441434061373440</v>
       </c>
       <c r="D34" t="n">
-        <v>-3547947118456699938360229368317148760375296</v>
+        <v>-128595046805368731418292669325848346624</v>
       </c>
       <c r="E34" t="n">
-        <v>2319877926325599063265579529618242289008640</v>
+        <v>84083781566718709747469441434061373440</v>
       </c>
       <c r="F34" t="n">
-        <v>3547947118456699938360229368317148760375296</v>
+        <v>128595046805368731418292669325848346624</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1486,16 +1486,16 @@
         <v>167179.537079991</v>
       </c>
       <c r="C35" t="n">
-        <v>-26333309067570070197307212556284072143355904</v>
+        <v>-867605740170084541111863727496968011776</v>
       </c>
       <c r="D35" t="n">
-        <v>-40273320835331724524372964309089562338000896</v>
+        <v>-1326888475838236826800181985117235838976</v>
       </c>
       <c r="E35" t="n">
-        <v>26333309067570070197307212556284072143355904</v>
+        <v>867605740170084541111863727496968011776</v>
       </c>
       <c r="F35" t="n">
-        <v>40273320835331724524372964309089562338000896</v>
+        <v>1326888475838236826800181985117235838976</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1518,16 +1518,16 @@
         <v>138553.161796966</v>
       </c>
       <c r="C36" t="n">
-        <v>-119625629230039604491941324048521834283401216</v>
+        <v>-10231934871424291613619853505668505927680</v>
       </c>
       <c r="D36" t="n">
-        <v>-182951612110265698747644128871951661826834432</v>
+        <v>-15648394008733428880074463815240091959296</v>
       </c>
       <c r="E36" t="n">
-        <v>119625629230039604491941324048521834283401216</v>
+        <v>10231934871424291613619853505668505927680</v>
       </c>
       <c r="F36" t="n">
-        <v>182951612110265698747644128871951661826834432</v>
+        <v>15648394008733428880074463815240091959296</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>

--- a/outcome/appendix/data/PHSMs/HFMD.xlsx
+++ b/outcome/appendix/data/PHSMs/HFMD.xlsx
@@ -494,16 +494,16 @@
         <v>78852.1596192207</v>
       </c>
       <c r="C4" t="n">
-        <v>-65989.8900122636</v>
+        <v>-106464.01613864</v>
       </c>
       <c r="D4" t="n">
-        <v>-113313.936254694</v>
+        <v>-220618.12452936</v>
       </c>
       <c r="E4" t="n">
-        <v>298097.279742814</v>
+        <v>324820.47166038</v>
       </c>
       <c r="F4" t="n">
-        <v>348953.693490505</v>
+        <v>438974.580051099</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -526,16 +526,16 @@
         <v>181979.954122606</v>
       </c>
       <c r="C5" t="n">
-        <v>-3342647.50893827</v>
+        <v>-24258294.329979</v>
       </c>
       <c r="D5" t="n">
-        <v>-5252759.51295542</v>
+        <v>-37240480.9474643</v>
       </c>
       <c r="E5" t="n">
-        <v>3873927.42563738</v>
+        <v>24789574.2466781</v>
       </c>
       <c r="F5" t="n">
-        <v>5784039.42965453</v>
+        <v>37771760.8641634</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -558,16 +558,16 @@
         <v>307981.558251585</v>
       </c>
       <c r="C6" t="n">
-        <v>-90891573.2272331</v>
+        <v>-1299029506.75616</v>
       </c>
       <c r="D6" t="n">
-        <v>-139211643.040647</v>
+        <v>-1986899166.30241</v>
       </c>
       <c r="E6" t="n">
-        <v>91665996.1294698</v>
+        <v>1299803929.65839</v>
       </c>
       <c r="F6" t="n">
-        <v>139986065.942884</v>
+        <v>1987673589.20465</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -590,16 +590,16 @@
         <v>334364.218096093</v>
       </c>
       <c r="C7" t="n">
-        <v>-1759452797.97056</v>
+        <v>-49820687548.7321</v>
       </c>
       <c r="D7" t="n">
-        <v>-2691048281.92827</v>
+        <v>-76194363869.5359</v>
       </c>
       <c r="E7" t="n">
-        <v>1760198722.23043</v>
+        <v>49821433472.9919</v>
       </c>
       <c r="F7" t="n">
-        <v>2691794206.18814</v>
+        <v>76195109793.7958</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -622,16 +622,16 @@
         <v>288070.149698339</v>
       </c>
       <c r="C8" t="n">
-        <v>-29861848117.4233</v>
+        <v>-1350062548549.36</v>
       </c>
       <c r="D8" t="n">
-        <v>-45669916125.4582</v>
+        <v>-2064742651689.99</v>
       </c>
       <c r="E8" t="n">
-        <v>29862454494.6386</v>
+        <v>1350063154926.57</v>
       </c>
       <c r="F8" t="n">
-        <v>45670522502.6736</v>
+        <v>2064743258067.21</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -654,16 +654,16 @@
         <v>177333.081101109</v>
       </c>
       <c r="C9" t="n">
-        <v>-201311893158.708</v>
+        <v>-28878313723435.4</v>
       </c>
       <c r="D9" t="n">
-        <v>-307880060559.806</v>
+        <v>-44165569663589.2</v>
       </c>
       <c r="E9" t="n">
-        <v>201312227349.949</v>
+        <v>28878314057626.6</v>
       </c>
       <c r="F9" t="n">
-        <v>307880394751.048</v>
+        <v>44165569997780.4</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -686,16 +686,16 @@
         <v>178895.417506343</v>
       </c>
       <c r="C10" t="n">
-        <v>-4505326823837.44</v>
+        <v>-951829200544860</v>
       </c>
       <c r="D10" t="n">
-        <v>-6890302869262.39</v>
+        <v>-1455697143036598</v>
       </c>
       <c r="E10" t="n">
-        <v>4505327165446.9</v>
+        <v>951829200886470</v>
       </c>
       <c r="F10" t="n">
-        <v>6890303210871.84</v>
+        <v>1455697143378207</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -718,16 +718,16 @@
         <v>167908.613297202</v>
       </c>
       <c r="C11" t="n">
-        <v>-63907750867379.8</v>
+        <v>-28511372354320736</v>
       </c>
       <c r="D11" t="n">
-        <v>-97738470709583.9</v>
+        <v>-43604381178880928</v>
       </c>
       <c r="E11" t="n">
-        <v>63907751217549.2</v>
+        <v>28511372354670904</v>
       </c>
       <c r="F11" t="n">
-        <v>97738471059753.4</v>
+        <v>43604381179231104</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -750,16 +750,16 @@
         <v>136006.237763421</v>
       </c>
       <c r="C12" t="n">
-        <v>-631120287835074</v>
+        <v>-781766594035491072</v>
       </c>
       <c r="D12" t="n">
-        <v>-965215187141284</v>
+        <v>-1195608830593623040</v>
       </c>
       <c r="E12" t="n">
-        <v>631120288127051</v>
+        <v>781766594035783168</v>
       </c>
       <c r="F12" t="n">
-        <v>965215187433261</v>
+        <v>1195608830593914880</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -782,16 +782,16 @@
         <v>99284.5649700158</v>
       </c>
       <c r="C13" t="n">
-        <v>-5263058714524040</v>
+        <v>-18364999652678967296</v>
       </c>
       <c r="D13" t="n">
-        <v>-8049153702741187</v>
+        <v>-28086843216523505664</v>
       </c>
       <c r="E13" t="n">
-        <v>5263058714731282</v>
+        <v>18364999652679176192</v>
       </c>
       <c r="F13" t="n">
-        <v>8049153702948429</v>
+        <v>28086843216523710464</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -814,16 +814,16 @@
         <v>58922.1803726112</v>
       </c>
       <c r="C14" t="n">
-        <v>-55985541231164776</v>
+        <v>-303771148723233554432</v>
       </c>
       <c r="D14" t="n">
-        <v>-85622496525508880</v>
+        <v>-464577881255124205568</v>
       </c>
       <c r="E14" t="n">
-        <v>55985541231276392</v>
+        <v>303771148723233685504</v>
       </c>
       <c r="F14" t="n">
-        <v>85622496525620496</v>
+        <v>464577881255124336640</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -846,16 +846,16 @@
         <v>38422.6553661416</v>
       </c>
       <c r="C15" t="n">
-        <v>-806519739929103872</v>
+        <v>-4676128882292632322048</v>
       </c>
       <c r="D15" t="n">
-        <v>-1233465500399065344</v>
+        <v>-7151521985357157498880</v>
       </c>
       <c r="E15" t="n">
-        <v>806519739929169152</v>
+        <v>4676128882292632322048</v>
       </c>
       <c r="F15" t="n">
-        <v>1233465500399130368</v>
+        <v>7151521985357157498880</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -878,16 +878,16 @@
         <v>80573.4635270812</v>
       </c>
       <c r="C16" t="n">
-        <v>-34342419714255355904</v>
+        <v>-478693254579165310484480</v>
       </c>
       <c r="D16" t="n">
-        <v>-52522198553356902400</v>
+        <v>-732098156517585053548544</v>
       </c>
       <c r="E16" t="n">
-        <v>34342419714255577088</v>
+        <v>478693254579165310484480</v>
       </c>
       <c r="F16" t="n">
-        <v>52522198553357115392</v>
+        <v>732098156517585053548544</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -910,16 +910,16 @@
         <v>181769.626737185</v>
       </c>
       <c r="C17" t="n">
-        <v>-1574943048716368740352</v>
+        <v>-45939748255500328864055296</v>
       </c>
       <c r="D17" t="n">
-        <v>-2408667537208330682368</v>
+        <v>-70258781979915428483301376</v>
       </c>
       <c r="E17" t="n">
-        <v>1574943048716369264640</v>
+        <v>45939748255500328864055296</v>
       </c>
       <c r="F17" t="n">
-        <v>2408667537208331730944</v>
+        <v>70258781979915428483301376</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -942,16 +942,16 @@
         <v>296617.708893521</v>
       </c>
       <c r="C18" t="n">
-        <v>-34382588308564582858752</v>
+        <v>-1745013386207932263983742976</v>
       </c>
       <c r="D18" t="n">
-        <v>-52583631117033840574464</v>
+        <v>-2668767673077920555188879360</v>
       </c>
       <c r="E18" t="n">
-        <v>34382588308564582858752</v>
+        <v>1745013386207932263983742976</v>
       </c>
       <c r="F18" t="n">
-        <v>52583631117033840574464</v>
+        <v>2668767673077920555188879360</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -974,16 +974,16 @@
         <v>319793.831768466</v>
       </c>
       <c r="C19" t="n">
-        <v>-309654325752114932875264</v>
+        <v>-46463524288779281237561835520</v>
       </c>
       <c r="D19" t="n">
-        <v>-473575424078444691980288</v>
+        <v>-71059828296577490590768300032</v>
       </c>
       <c r="E19" t="n">
-        <v>309654325752114932875264</v>
+        <v>46463524288779281237561835520</v>
       </c>
       <c r="F19" t="n">
-        <v>473575424078444691980288</v>
+        <v>71059828296577490590768300032</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1006,16 +1006,16 @@
         <v>277318.332380656</v>
       </c>
       <c r="C20" t="n">
-        <v>-3565278113581518232223744</v>
+        <v>-995453880452298228680187969536</v>
       </c>
       <c r="D20" t="n">
-        <v>-5452622341044213855027200</v>
+        <v>-1522415333422839123240420376576</v>
       </c>
       <c r="E20" t="n">
-        <v>3565278113581518232223744</v>
+        <v>995453880452298228680187969536</v>
       </c>
       <c r="F20" t="n">
-        <v>5452622341044213855027200</v>
+        <v>1522415333422839123240420376576</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1038,16 +1038,16 @@
         <v>174349.258358098</v>
       </c>
       <c r="C21" t="n">
-        <v>-25123714796669603017654272</v>
+        <v>-26896951644000935223168874840064</v>
       </c>
       <c r="D21" t="n">
-        <v>-38423406036262803061342208</v>
+        <v>-41135337768289396015641130958848</v>
       </c>
       <c r="E21" t="n">
-        <v>25123714796669603017654272</v>
+        <v>26896951644000935223168874840064</v>
       </c>
       <c r="F21" t="n">
-        <v>38423406036262803061342208</v>
+        <v>41135337768289396015641130958848</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1070,16 +1070,16 @@
         <v>176275.981840536</v>
       </c>
       <c r="C22" t="n">
-        <v>-303366838897446766178729984</v>
+        <v>-537691389369485739656392149565440</v>
       </c>
       <c r="D22" t="n">
-        <v>-463959542736064350273929216</v>
+        <v>-822328017299603707021982471028736</v>
       </c>
       <c r="E22" t="n">
-        <v>303366838897446766178729984</v>
+        <v>537691389369485739656392149565440</v>
       </c>
       <c r="F22" t="n">
-        <v>463959542736064350273929216</v>
+        <v>822328017299603707021982471028736</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1102,16 +1102,16 @@
         <v>163956.977078498</v>
       </c>
       <c r="C23" t="n">
-        <v>-2650823833862542103001694208</v>
+        <v>-17368204885465996389238330011680768</v>
       </c>
       <c r="D23" t="n">
-        <v>-4054085206882105368843911168</v>
+        <v>-26562377173765981077889100189532160</v>
       </c>
       <c r="E23" t="n">
-        <v>2650823833862542103001694208</v>
+        <v>17368204885465996389238330011680768</v>
       </c>
       <c r="F23" t="n">
-        <v>4054085206882105368843911168</v>
+        <v>26562377173765981077889100189532160</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1134,16 +1134,16 @@
         <v>134096.506889422</v>
       </c>
       <c r="C24" t="n">
-        <v>-8501159080236943669534392320</v>
+        <v>-337639962607405126150212367046148096</v>
       </c>
       <c r="D24" t="n">
-        <v>-13001400858208529731981148160</v>
+        <v>-516375762196307643847548586864672768</v>
       </c>
       <c r="E24" t="n">
-        <v>8501159080236943669534392320</v>
+        <v>337639962607405126150212367046148096</v>
       </c>
       <c r="F24" t="n">
-        <v>13001400858208529731981148160</v>
+        <v>516375762196307643847548586864672768</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1166,16 +1166,16 @@
         <v>99205.9367119199</v>
       </c>
       <c r="C25" t="n">
-        <v>-57244017268931525749644460032</v>
+        <v>-7967492772554703101076574858408624128</v>
       </c>
       <c r="D25" t="n">
-        <v>-87547169535715424158705778688</v>
+        <v>-12185228672132525934733980905748037632</v>
       </c>
       <c r="E25" t="n">
-        <v>57244017268931525749644460032</v>
+        <v>7967492772554703101076574858408624128</v>
       </c>
       <c r="F25" t="n">
-        <v>87547169535715424158705778688</v>
+        <v>12185228672132525934733980905748037632</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1198,16 +1198,16 @@
         <v>59999.8495151354</v>
       </c>
       <c r="C26" t="n">
-        <v>-681203275255209194226012127232</v>
+        <v>-114660774209330525888895416814949892096</v>
       </c>
       <c r="D26" t="n">
-        <v>-1041810506535149979881424551936</v>
+        <v>-175358521601326655949149137207182753792</v>
       </c>
       <c r="E26" t="n">
-        <v>681203275255209194226012127232</v>
+        <v>114660774209330525888895416814949892096</v>
       </c>
       <c r="F26" t="n">
-        <v>1041810506535149979881424551936</v>
+        <v>175358521601326655949149137207182753792</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1230,16 +1230,16 @@
         <v>39592.0014006528</v>
       </c>
       <c r="C27" t="n">
-        <v>-4679235434956804218334006476800</v>
+        <v>-1749062313983191962546469319907699851264</v>
       </c>
       <c r="D27" t="n">
-        <v>-7156273047664404768456001454080</v>
+        <v>-2674959973746009844032901169003546804224</v>
       </c>
       <c r="E27" t="n">
-        <v>4679235434956804218334006476800</v>
+        <v>1749062313983191962546469319907699851264</v>
       </c>
       <c r="F27" t="n">
-        <v>7156273047664404768456001454080</v>
+        <v>2674959973746009844032901169003546804224</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1262,16 +1262,16 @@
         <v>80532.3974181003</v>
       </c>
       <c r="C28" t="n">
-        <v>-148941746494175960304213062320128</v>
+        <v>-177573344070330316699498001581760028082176</v>
       </c>
       <c r="D28" t="n">
-        <v>-227786744421030658524143966748672</v>
+        <v>-271574994209684083358329646878077824794624</v>
       </c>
       <c r="E28" t="n">
-        <v>148941746494175960304213062320128</v>
+        <v>177573344070330316699498001581760028082176</v>
       </c>
       <c r="F28" t="n">
-        <v>227786744421030658524143966748672</v>
+        <v>271574994209684083358329646878077824794624</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1294,16 +1294,16 @@
         <v>180906.050697436</v>
       </c>
       <c r="C29" t="n">
-        <v>-4028335260174032370889717505327104</v>
+        <v>-12941201526916765251174549319773670703366144</v>
       </c>
       <c r="D29" t="n">
-        <v>-6160807133998318598995639074291712</v>
+        <v>-19791859798207143242879338112216122582368256</v>
       </c>
       <c r="E29" t="n">
-        <v>4028335260174032370889717505327104</v>
+        <v>12941201526916765251174549319773670703366144</v>
       </c>
       <c r="F29" t="n">
-        <v>6160807133998318598995639074291712</v>
+        <v>19791859798207143242879338112216122582368256</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1326,16 +1326,16 @@
         <v>296362.911669027</v>
       </c>
       <c r="C30" t="n">
-        <v>-55926952440643355037978762577707008</v>
+        <v>-377498380391488140624326835983031514303561728</v>
       </c>
       <c r="D30" t="n">
-        <v>-85532892702732697845342050893955072</v>
+        <v>-577333951814183507400533936662360169883107328</v>
       </c>
       <c r="E30" t="n">
-        <v>55926952440643355037978762577707008</v>
+        <v>377498380391488140624326835983031514303561728</v>
       </c>
       <c r="F30" t="n">
-        <v>85532892702732697845342050893955072</v>
+        <v>577333951814183507400533936662360169883107328</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1358,16 +1358,16 @@
         <v>316745.837651885</v>
       </c>
       <c r="C31" t="n">
-        <v>-532892836791013037084335683240198144</v>
+        <v>-7414012102451095354881197877918906241261764608</v>
       </c>
       <c r="D31" t="n">
-        <v>-814989264428016049438172294563233792</v>
+        <v>-11338753033767420279104017678798162212354523136</v>
       </c>
       <c r="E31" t="n">
-        <v>532892836791013037084335683240198144</v>
+        <v>7414012102451095354881197877918906241261764608</v>
       </c>
       <c r="F31" t="n">
-        <v>814989264428016049438172294563233792</v>
+        <v>11338753033767420279104017678798162212354523136</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1390,16 +1390,16 @@
         <v>271527.292643191</v>
       </c>
       <c r="C32" t="n">
-        <v>-4350738946751677075724531652932665344</v>
+        <v>-174593339595196771480521685867366871248769384448</v>
       </c>
       <c r="D32" t="n">
-        <v>-6653881022840703975321673579920097280</v>
+        <v>-267017470656156300119613154932230891932710076416</v>
       </c>
       <c r="E32" t="n">
-        <v>4350738946751677075724531652932665344</v>
+        <v>174593339595196771480521685867366871248769384448</v>
       </c>
       <c r="F32" t="n">
-        <v>6653881022840703975321673579920097280</v>
+        <v>267017470656156300119613154932230891932710076416</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1422,16 +1422,16 @@
         <v>171569.032871392</v>
       </c>
       <c r="C33" t="n">
-        <v>-8364727480549549350035063742348132352</v>
+        <v>-2276356845619750325677796770463537650307918987264</v>
       </c>
       <c r="D33" t="n">
-        <v>-12792746732280443594558203771408613376</v>
+        <v>-3481387369286188190776764833639369041562543587328</v>
       </c>
       <c r="E33" t="n">
-        <v>8364727480549549350035063742348132352</v>
+        <v>2276356845619750325677796770463537650307918987264</v>
       </c>
       <c r="F33" t="n">
-        <v>12792746732280443594558203771408613376</v>
+        <v>3481387369286188190776764833639369041562543587328</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1454,16 +1454,16 @@
         <v>176404.996205268</v>
       </c>
       <c r="C34" t="n">
-        <v>-84083781566718709747469441434061373440</v>
+        <v>-32371208364391715130091962328531714546109436133376</v>
       </c>
       <c r="D34" t="n">
-        <v>-128595046805368731418292669325848346624</v>
+        <v>-49507490947730757391554619424593883698679857020928</v>
       </c>
       <c r="E34" t="n">
-        <v>84083781566718709747469441434061373440</v>
+        <v>32371208364391715130091962328531714546109436133376</v>
       </c>
       <c r="F34" t="n">
-        <v>128595046805368731418292669325848346624</v>
+        <v>49507490947730757391554619424593883698679857020928</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1486,16 +1486,16 @@
         <v>167179.537079991</v>
       </c>
       <c r="C35" t="n">
-        <v>-867605740170084541111863727496968011776</v>
+        <v>-951809959402173778354070548490133278380372625719296</v>
       </c>
       <c r="D35" t="n">
-        <v>-1326888475838236826800181985117235838976</v>
+        <v>-1455667716157822773935529158413892088774182572130304</v>
       </c>
       <c r="E35" t="n">
-        <v>867605740170084541111863727496968011776</v>
+        <v>951809959402173778354070548490133278380372625719296</v>
       </c>
       <c r="F35" t="n">
-        <v>1326888475838236826800181985117235838976</v>
+        <v>1455667716157822773935529158413892088774182572130304</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1518,16 +1518,16 @@
         <v>138553.161796966</v>
       </c>
       <c r="C36" t="n">
-        <v>-10231934871424291613619853505668505927680</v>
+        <v>-18742484136033668027955470027008434088050207970295808</v>
       </c>
       <c r="D36" t="n">
-        <v>-15648394008733428880074463815240091959296</v>
+        <v>-28664155914653947647567923638265415652987134105616384</v>
       </c>
       <c r="E36" t="n">
-        <v>10231934871424291613619853505668505927680</v>
+        <v>18742484136033668027955470027008434088050207970295808</v>
       </c>
       <c r="F36" t="n">
-        <v>15648394008733428880074463815240091959296</v>
+        <v>28664155914653947647567923638265415652987134105616384</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>

--- a/outcome/appendix/data/PHSMs/HFMD.xlsx
+++ b/outcome/appendix/data/PHSMs/HFMD.xlsx
@@ -494,16 +494,16 @@
         <v>78852.1596192207</v>
       </c>
       <c r="C4" t="n">
-        <v>-106464.01613864</v>
+        <v>-136370.770744098</v>
       </c>
       <c r="D4" t="n">
-        <v>-220618.12452936</v>
+        <v>-266356.558703302</v>
       </c>
       <c r="E4" t="n">
-        <v>324820.47166038</v>
+        <v>354727.226265838</v>
       </c>
       <c r="F4" t="n">
-        <v>438974.580051099</v>
+        <v>484713.014225041</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -526,16 +526,16 @@
         <v>181979.954122606</v>
       </c>
       <c r="C5" t="n">
-        <v>-24258294.329979</v>
+        <v>-27570574.9581737</v>
       </c>
       <c r="D5" t="n">
-        <v>-37240480.9474643</v>
+        <v>-42306177.0243854</v>
       </c>
       <c r="E5" t="n">
-        <v>24789574.2466781</v>
+        <v>28101854.8748728</v>
       </c>
       <c r="F5" t="n">
-        <v>37771760.8641634</v>
+        <v>42837456.9410845</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -558,16 +558,16 @@
         <v>307981.558251585</v>
       </c>
       <c r="C6" t="n">
-        <v>-1299029506.75616</v>
+        <v>-1839526033.80292</v>
       </c>
       <c r="D6" t="n">
-        <v>-1986899166.30241</v>
+        <v>-2813517271.46656</v>
       </c>
       <c r="E6" t="n">
-        <v>1299803929.65839</v>
+        <v>1840300456.70516</v>
       </c>
       <c r="F6" t="n">
-        <v>1987673589.20465</v>
+        <v>2814291694.3688</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -590,16 +590,16 @@
         <v>334364.218096093</v>
       </c>
       <c r="C7" t="n">
-        <v>-49820687548.7321</v>
+        <v>-66498942850.8842</v>
       </c>
       <c r="D7" t="n">
-        <v>-76194363869.5359</v>
+        <v>-101701554212.9</v>
       </c>
       <c r="E7" t="n">
-        <v>49821433472.9919</v>
+        <v>66499688775.1441</v>
       </c>
       <c r="F7" t="n">
-        <v>76195109793.7958</v>
+        <v>101702300137.16</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -622,16 +622,16 @@
         <v>288070.149698339</v>
       </c>
       <c r="C8" t="n">
-        <v>-1350062548549.36</v>
+        <v>-1903076212793.26</v>
       </c>
       <c r="D8" t="n">
-        <v>-2064742651689.99</v>
+        <v>-2910504066226.57</v>
       </c>
       <c r="E8" t="n">
-        <v>1350063154926.57</v>
+        <v>1903076819170.48</v>
       </c>
       <c r="F8" t="n">
-        <v>2064743258067.21</v>
+        <v>2910504672603.79</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -654,16 +654,16 @@
         <v>177333.081101109</v>
       </c>
       <c r="C9" t="n">
-        <v>-28878313723435.4</v>
+        <v>-40593214109069.2</v>
       </c>
       <c r="D9" t="n">
-        <v>-44165569663589.2</v>
+        <v>-62081963709395.2</v>
       </c>
       <c r="E9" t="n">
-        <v>28878314057626.6</v>
+        <v>40593214443260.4</v>
       </c>
       <c r="F9" t="n">
-        <v>44165569997780.4</v>
+        <v>62081964043586.4</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -686,16 +686,16 @@
         <v>178895.417506343</v>
       </c>
       <c r="C10" t="n">
-        <v>-951829200544860</v>
+        <v>-1355538079772598</v>
       </c>
       <c r="D10" t="n">
-        <v>-1455697143036598</v>
+        <v>-2073116593645399</v>
       </c>
       <c r="E10" t="n">
-        <v>951829200886470</v>
+        <v>1355538080114208</v>
       </c>
       <c r="F10" t="n">
-        <v>1455697143378207</v>
+        <v>2073116593987008</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -718,16 +718,16 @@
         <v>167908.613297202</v>
       </c>
       <c r="C11" t="n">
-        <v>-28511372354320736</v>
+        <v>-56181594182341008</v>
       </c>
       <c r="D11" t="n">
-        <v>-43604381178880928</v>
+        <v>-85922333639972416</v>
       </c>
       <c r="E11" t="n">
-        <v>28511372354670904</v>
+        <v>56181594182691184</v>
       </c>
       <c r="F11" t="n">
-        <v>43604381179231104</v>
+        <v>85922333640322592</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -750,16 +750,16 @@
         <v>136006.237763421</v>
       </c>
       <c r="C12" t="n">
-        <v>-781766594035491072</v>
+        <v>-1340142784833764096</v>
       </c>
       <c r="D12" t="n">
-        <v>-1195608830593623040</v>
+        <v>-2049571521766499584</v>
       </c>
       <c r="E12" t="n">
-        <v>781766594035783168</v>
+        <v>1340142784834055936</v>
       </c>
       <c r="F12" t="n">
-        <v>1195608830593914880</v>
+        <v>2049571521766791424</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -782,16 +782,16 @@
         <v>99284.5649700158</v>
       </c>
       <c r="C13" t="n">
-        <v>-18364999652678967296</v>
+        <v>-34004812060185088000</v>
       </c>
       <c r="D13" t="n">
-        <v>-28086843216523505664</v>
+        <v>-52005872202804158464</v>
       </c>
       <c r="E13" t="n">
-        <v>18364999652679176192</v>
+        <v>34004812060185292800</v>
       </c>
       <c r="F13" t="n">
-        <v>28086843216523710464</v>
+        <v>52005872202804371456</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -814,16 +814,16 @@
         <v>58922.1803726112</v>
       </c>
       <c r="C14" t="n">
-        <v>-303771148723233554432</v>
+        <v>-576776156402480513024</v>
       </c>
       <c r="D14" t="n">
-        <v>-464577881255124205568</v>
+        <v>-882103010197571764224</v>
       </c>
       <c r="E14" t="n">
-        <v>303771148723233685504</v>
+        <v>576776156402480644096</v>
       </c>
       <c r="F14" t="n">
-        <v>464577881255124336640</v>
+        <v>882103010197571764224</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -846,16 +846,16 @@
         <v>38422.6553661416</v>
       </c>
       <c r="C15" t="n">
-        <v>-4676128882292632322048</v>
+        <v>-9141347938517929426944</v>
       </c>
       <c r="D15" t="n">
-        <v>-7151521985357157498880</v>
+        <v>-13980485226929456152576</v>
       </c>
       <c r="E15" t="n">
-        <v>4676128882292632322048</v>
+        <v>9141347938517929426944</v>
       </c>
       <c r="F15" t="n">
-        <v>7151521985357157498880</v>
+        <v>13980485226929456152576</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -878,16 +878,16 @@
         <v>80573.4635270812</v>
       </c>
       <c r="C16" t="n">
-        <v>-478693254579165310484480</v>
+        <v>-901863644663539721830400</v>
       </c>
       <c r="D16" t="n">
-        <v>-732098156517585053548544</v>
+        <v>-1379281419515420678815744</v>
       </c>
       <c r="E16" t="n">
-        <v>478693254579165310484480</v>
+        <v>901863644663539721830400</v>
       </c>
       <c r="F16" t="n">
-        <v>732098156517585053548544</v>
+        <v>1379281419515420678815744</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -910,16 +910,16 @@
         <v>181769.626737185</v>
       </c>
       <c r="C17" t="n">
-        <v>-45939748255500328864055296</v>
+        <v>-53583589267231488813826048</v>
       </c>
       <c r="D17" t="n">
-        <v>-70258781979915428483301376</v>
+        <v>-81949027998363202877390848</v>
       </c>
       <c r="E17" t="n">
-        <v>45939748255500328864055296</v>
+        <v>53583589267231488813826048</v>
       </c>
       <c r="F17" t="n">
-        <v>70258781979915428483301376</v>
+        <v>81949027998363202877390848</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -942,16 +942,16 @@
         <v>296617.708893521</v>
       </c>
       <c r="C18" t="n">
-        <v>-1745013386207932263983742976</v>
+        <v>-2247307314169427709074079744</v>
       </c>
       <c r="D18" t="n">
-        <v>-2668767673077920555188879360</v>
+        <v>-3436959944794532789790703616</v>
       </c>
       <c r="E18" t="n">
-        <v>1745013386207932263983742976</v>
+        <v>2247307314169427709074079744</v>
       </c>
       <c r="F18" t="n">
-        <v>2668767673077920555188879360</v>
+        <v>3436959944794532789790703616</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -974,16 +974,16 @@
         <v>319793.831768466</v>
       </c>
       <c r="C19" t="n">
-        <v>-46463524288779281237561835520</v>
+        <v>-64461319350445554735322759168</v>
       </c>
       <c r="D19" t="n">
-        <v>-71059828296577490590768300032</v>
+        <v>-98585080553601148912018653184</v>
       </c>
       <c r="E19" t="n">
-        <v>46463524288779281237561835520</v>
+        <v>64461319350445554735322759168</v>
       </c>
       <c r="F19" t="n">
-        <v>71059828296577490590768300032</v>
+        <v>98585080553601148912018653184</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1006,16 +1006,16 @@
         <v>277318.332380656</v>
       </c>
       <c r="C20" t="n">
-        <v>-995453880452298228680187969536</v>
+        <v>-1269079121867479122959952510976</v>
       </c>
       <c r="D20" t="n">
-        <v>-1522415333422839123240420376576</v>
+        <v>-1940889028007988976280085200896</v>
       </c>
       <c r="E20" t="n">
-        <v>995453880452298228680187969536</v>
+        <v>1269079121867479122959952510976</v>
       </c>
       <c r="F20" t="n">
-        <v>1522415333422839123240420376576</v>
+        <v>1940889028007988976280085200896</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1038,16 +1038,16 @@
         <v>174349.258358098</v>
       </c>
       <c r="C21" t="n">
-        <v>-26896951644000935223168874840064</v>
+        <v>-17798357410822967634498099871744</v>
       </c>
       <c r="D21" t="n">
-        <v>-41135337768289396015641130958848</v>
+        <v>-27220238691184006422041129385984</v>
       </c>
       <c r="E21" t="n">
-        <v>26896951644000935223168874840064</v>
+        <v>17798357410822967634498099871744</v>
       </c>
       <c r="F21" t="n">
-        <v>41135337768289396015641130958848</v>
+        <v>27220238691184006422041129385984</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1070,16 +1070,16 @@
         <v>176275.981840536</v>
       </c>
       <c r="C22" t="n">
-        <v>-537691389369485739656392149565440</v>
+        <v>-351045132791629296323646277550080</v>
       </c>
       <c r="D22" t="n">
-        <v>-822328017299603707021982471028736</v>
+        <v>-536877200822809189463620122050560</v>
       </c>
       <c r="E22" t="n">
-        <v>537691389369485739656392149565440</v>
+        <v>351045132791629296323646277550080</v>
       </c>
       <c r="F22" t="n">
-        <v>822328017299603707021982471028736</v>
+        <v>536877200822809189463620122050560</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1102,16 +1102,16 @@
         <v>163956.977078498</v>
       </c>
       <c r="C23" t="n">
-        <v>-17368204885465996389238330011680768</v>
+        <v>-7514859205484663320519037006381056</v>
       </c>
       <c r="D23" t="n">
-        <v>-26562377173765981077889100189532160</v>
+        <v>-11492985368388306589432564598964224</v>
       </c>
       <c r="E23" t="n">
-        <v>17368204885465996389238330011680768</v>
+        <v>7514859205484663320519037006381056</v>
       </c>
       <c r="F23" t="n">
-        <v>26562377173765981077889100189532160</v>
+        <v>11492985368388306589432564598964224</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1134,16 +1134,16 @@
         <v>134096.506889422</v>
       </c>
       <c r="C24" t="n">
-        <v>-337639962607405126150212367046148096</v>
+        <v>-117120834690490746815357649483202560</v>
       </c>
       <c r="D24" t="n">
-        <v>-516375762196307643847548586864672768</v>
+        <v>-179120859436570422698174935891705856</v>
       </c>
       <c r="E24" t="n">
-        <v>337639962607405126150212367046148096</v>
+        <v>117120834690490746815357649483202560</v>
       </c>
       <c r="F24" t="n">
-        <v>516375762196307643847548586864672768</v>
+        <v>179120859436570422698174935891705856</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1166,16 +1166,16 @@
         <v>99205.9367119199</v>
       </c>
       <c r="C25" t="n">
-        <v>-7967492772554703101076574858408624128</v>
+        <v>-1847562903147892696173288997838127104</v>
       </c>
       <c r="D25" t="n">
-        <v>-12185228672132525934733980905748037632</v>
+        <v>-2825603625089644877847971239043268608</v>
       </c>
       <c r="E25" t="n">
-        <v>7967492772554703101076574858408624128</v>
+        <v>1847562903147892696173288997838127104</v>
       </c>
       <c r="F25" t="n">
-        <v>12185228672132525934733980905748037632</v>
+        <v>2825603625089644877847971239043268608</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1198,16 +1198,16 @@
         <v>59999.8495151354</v>
       </c>
       <c r="C26" t="n">
-        <v>-114660774209330525888895416814949892096</v>
+        <v>-20398975185726875502073425961341157376</v>
       </c>
       <c r="D26" t="n">
-        <v>-175358521601326655949149137207182753792</v>
+        <v>-31197540356919409073632786688587595776</v>
       </c>
       <c r="E26" t="n">
-        <v>114660774209330525888895416814949892096</v>
+        <v>20398975185726875502073425961341157376</v>
       </c>
       <c r="F26" t="n">
-        <v>175358521601326655949149137207182753792</v>
+        <v>31197540356919409073632786688587595776</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1230,16 +1230,16 @@
         <v>39592.0014006528</v>
       </c>
       <c r="C27" t="n">
-        <v>-1749062313983191962546469319907699851264</v>
+        <v>-256556618761289072807201959935624609792</v>
       </c>
       <c r="D27" t="n">
-        <v>-2674959973746009844032901169003546804224</v>
+        <v>-392369488896699157480948617220393533440</v>
       </c>
       <c r="E27" t="n">
-        <v>1749062313983191962546469319907699851264</v>
+        <v>256556618761289072807201959935624609792</v>
       </c>
       <c r="F27" t="n">
-        <v>2674959973746009844032901169003546804224</v>
+        <v>392369488896699157480948617220393533440</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1262,16 +1262,16 @@
         <v>80532.3974181003</v>
       </c>
       <c r="C28" t="n">
-        <v>-177573344070330316699498001581760028082176</v>
+        <v>-19348696507036368206029870464561284382720</v>
       </c>
       <c r="D28" t="n">
-        <v>-271574994209684083358329646878077824794624</v>
+        <v>-29591277730187772438264256611569933221888</v>
       </c>
       <c r="E28" t="n">
-        <v>177573344070330316699498001581760028082176</v>
+        <v>19348696507036368206029870464561284382720</v>
       </c>
       <c r="F28" t="n">
-        <v>271574994209684083358329646878077824794624</v>
+        <v>29591277730187772438264256611569933221888</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1294,16 +1294,16 @@
         <v>180906.050697436</v>
       </c>
       <c r="C29" t="n">
-        <v>-12941201526916765251174549319773670703366144</v>
+        <v>-832461560566540501483685336360222531256320</v>
       </c>
       <c r="D29" t="n">
-        <v>-19791859798207143242879338112216122582368256</v>
+        <v>-1273140091347846039090103623304734044061696</v>
       </c>
       <c r="E29" t="n">
-        <v>12941201526916765251174549319773670703366144</v>
+        <v>832461560566540501483685336360222531256320</v>
       </c>
       <c r="F29" t="n">
-        <v>19791859798207143242879338112216122582368256</v>
+        <v>1273140091347846039090103623304734044061696</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1326,16 +1326,16 @@
         <v>296362.911669027</v>
       </c>
       <c r="C30" t="n">
-        <v>-377498380391488140624326835983031514303561728</v>
+        <v>-31111970621106766340337952793414423619305472</v>
       </c>
       <c r="D30" t="n">
-        <v>-577333951814183507400533936662360169883107328</v>
+        <v>-47581653009431971915772695231777235986808832</v>
       </c>
       <c r="E30" t="n">
-        <v>377498380391488140624326835983031514303561728</v>
+        <v>31111970621106766340337952793414423619305472</v>
       </c>
       <c r="F30" t="n">
-        <v>577333951814183507400533936662360169883107328</v>
+        <v>47581653009431971915772695231777235986808832</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1358,16 +1358,16 @@
         <v>316745.837651885</v>
       </c>
       <c r="C31" t="n">
-        <v>-7414012102451095354881197877918906241261764608</v>
+        <v>-654929757748102124952213121172923385106137088</v>
       </c>
       <c r="D31" t="n">
-        <v>-11338753033767420279104017678798162212354523136</v>
+        <v>-1001628629000452872426901985316378471848476672</v>
       </c>
       <c r="E31" t="n">
-        <v>7414012102451095354881197877918906241261764608</v>
+        <v>654929757748102124952213121172923385106137088</v>
       </c>
       <c r="F31" t="n">
-        <v>11338753033767420279104017678798162212354523136</v>
+        <v>1001628629000452872426901985316378471848476672</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1390,16 +1390,16 @@
         <v>271527.292643191</v>
       </c>
       <c r="C32" t="n">
-        <v>-174593339595196771480521685867366871248769384448</v>
+        <v>-13833840941188692622318760637384175980805881856</v>
       </c>
       <c r="D32" t="n">
-        <v>-267017470656156300119613154932230891932710076416</v>
+        <v>-21157033974722179601598296303788882146665431040</v>
       </c>
       <c r="E32" t="n">
-        <v>174593339595196771480521685867366871248769384448</v>
+        <v>13833840941188692622318760637384175980805881856</v>
       </c>
       <c r="F32" t="n">
-        <v>267017470656156300119613154932230891932710076416</v>
+        <v>21157033974722179601598296303788882146665431040</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1422,16 +1422,16 @@
         <v>171569.032871392</v>
       </c>
       <c r="C33" t="n">
-        <v>-2276356845619750325677796770463537650307918987264</v>
+        <v>-159919699871242921349429562326515490026963337216</v>
       </c>
       <c r="D33" t="n">
-        <v>-3481387369286188190776764833639369041562543587328</v>
+        <v>-244576075277075935259459480819268789094682984448</v>
       </c>
       <c r="E33" t="n">
-        <v>2276356845619750325677796770463537650307918987264</v>
+        <v>159919699871242921349429562326515490026963337216</v>
       </c>
       <c r="F33" t="n">
-        <v>3481387369286188190776764833639369041562543587328</v>
+        <v>244576075277075935259459480819268789094682984448</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1454,16 +1454,16 @@
         <v>176404.996205268</v>
       </c>
       <c r="C34" t="n">
-        <v>-32371208364391715130091962328531714546109436133376</v>
+        <v>-2873200984509066047712042916881447696898101084160</v>
       </c>
       <c r="D34" t="n">
-        <v>-49507490947730757391554619424593883698679857020928</v>
+        <v>-4394181710191052409833237306802945838678393487360</v>
       </c>
       <c r="E34" t="n">
-        <v>32371208364391715130091962328531714546109436133376</v>
+        <v>2873200984509066047712042916881447696898101084160</v>
       </c>
       <c r="F34" t="n">
-        <v>49507490947730757391554619424593883698679857020928</v>
+        <v>4394181710191052409833237306802945838678393487360</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1486,16 +1486,16 @@
         <v>167179.537079991</v>
       </c>
       <c r="C35" t="n">
-        <v>-951809959402173778354070548490133278380372625719296</v>
+        <v>-47066036157584765886247709170310389110083636166656</v>
       </c>
       <c r="D35" t="n">
-        <v>-1455667716157822773935529158413892088774182572130304</v>
+        <v>-71981290682380793544865283419587313077367194255360</v>
       </c>
       <c r="E35" t="n">
-        <v>951809959402173778354070548490133278380372625719296</v>
+        <v>47066036157584765886247709170310389110083636166656</v>
       </c>
       <c r="F35" t="n">
-        <v>1455667716157822773935529158413892088774182572130304</v>
+        <v>71981290682380793544865283419587313077367194255360</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1518,16 +1518,16 @@
         <v>138553.161796966</v>
       </c>
       <c r="C36" t="n">
-        <v>-18742484136033668027955470027008434088050207970295808</v>
+        <v>-492530185190111657343901974647980609334228929216512</v>
       </c>
       <c r="D36" t="n">
-        <v>-28664155914653947647567923638265415652987134105616384</v>
+        <v>-753259915734437095370121723173643669155686792560640</v>
       </c>
       <c r="E36" t="n">
-        <v>18742484136033668027955470027008434088050207970295808</v>
+        <v>492530185190111657343901974647980609334228929216512</v>
       </c>
       <c r="F36" t="n">
-        <v>28664155914653947647567923638265415652987134105616384</v>
+        <v>753259915734437095370121723173643669155686792560640</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
